--- a/REQUERIMIENTOS.xlsx
+++ b/REQUERIMIENTOS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROYECTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROYECTO\TEORIA PROYECTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB95A86-9C63-4592-B344-57641BDE2D97}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INTRODUCCIÓN" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="REQUISITOS ESPECIFICOS" sheetId="3" r:id="rId3"/>
     <sheet name="APENDICES Y OTROS" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -704,7 +703,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2089,165 +2088,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2257,6 +2097,39 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2302,6 +2175,195 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2312,148 +2374,85 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2498,328 +2497,439 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="68" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="71" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="65" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="67" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="79" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="58" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="69" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="84" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="83" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="69" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="58" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2858,275 +2968,164 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="84" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="83" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="71" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="67" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="87" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="79" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="68" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="65" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3193,7 +3192,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3500,7 +3499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
@@ -3518,616 +3517,616 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="90" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="78" t="s">
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="M2" s="79"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="79"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="78" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="M3" s="79"/>
-      <c r="N3" s="78" t="s">
+      <c r="M3" s="26"/>
+      <c r="N3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="79"/>
+      <c r="O3" s="26"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="49" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="78" t="s">
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="79"/>
-      <c r="N4" s="80">
+      <c r="M4" s="26"/>
+      <c r="N4" s="27">
         <f ca="1">TODAY()</f>
-        <v>43588</v>
-      </c>
-      <c r="O4" s="79"/>
+        <v>43948</v>
+      </c>
+      <c r="O4" s="26"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="78" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="79"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="26"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="81" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="83"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="41"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="86"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="44"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="89"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="47"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
+      <c r="A9" s="28">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="69" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="71"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="78"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="74"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="81"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="77"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="84"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="37">
+      <c r="A12" s="28">
         <v>1.2</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="69" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="71"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="78"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="74"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="81"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="77"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="84"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37">
+      <c r="A15" s="28">
         <v>1.3</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="58" t="s">
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="61" t="s">
+      <c r="F15" s="66"/>
+      <c r="G15" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="60"/>
-      <c r="I15" s="58" t="s">
+      <c r="H15" s="65"/>
+      <c r="I15" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="58"/>
-      <c r="K15" s="61" t="s">
+      <c r="J15" s="66"/>
+      <c r="K15" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="60"/>
+      <c r="L15" s="65"/>
       <c r="M15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="61" t="s">
+      <c r="N15" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="60"/>
+      <c r="O15" s="65"/>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="58" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="61" t="s">
+      <c r="F16" s="66"/>
+      <c r="G16" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="60"/>
-      <c r="I16" s="58" t="s">
+      <c r="H16" s="65"/>
+      <c r="I16" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="58"/>
-      <c r="K16" s="61" t="s">
+      <c r="J16" s="66"/>
+      <c r="K16" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="60"/>
+      <c r="L16" s="65"/>
       <c r="M16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N16" s="61" t="s">
+      <c r="N16" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="O16" s="60"/>
+      <c r="O16" s="65"/>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="58" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="61" t="s">
+      <c r="F17" s="66"/>
+      <c r="G17" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="60"/>
-      <c r="I17" s="58" t="s">
+      <c r="H17" s="65"/>
+      <c r="I17" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="58"/>
-      <c r="K17" s="61" t="s">
+      <c r="J17" s="66"/>
+      <c r="K17" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="L17" s="60"/>
+      <c r="L17" s="65"/>
       <c r="M17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N17" s="61" t="s">
+      <c r="N17" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="O17" s="60"/>
+      <c r="O17" s="65"/>
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="58" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="58"/>
-      <c r="G18" s="59" t="s">
+      <c r="F18" s="66"/>
+      <c r="G18" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="58" t="s">
+      <c r="H18" s="65"/>
+      <c r="I18" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="58"/>
-      <c r="K18" s="61" t="s">
+      <c r="J18" s="66"/>
+      <c r="K18" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="L18" s="60"/>
+      <c r="L18" s="65"/>
       <c r="M18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N18" s="61" t="s">
+      <c r="N18" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="O18" s="60"/>
+      <c r="O18" s="65"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="58" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="61">
+      <c r="F19" s="66"/>
+      <c r="G19" s="64">
         <v>3116782511</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="58" t="s">
+      <c r="H19" s="65"/>
+      <c r="I19" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="58"/>
-      <c r="K19" s="61">
+      <c r="J19" s="66"/>
+      <c r="K19" s="64">
         <v>3197277051</v>
       </c>
-      <c r="L19" s="60"/>
+      <c r="L19" s="65"/>
       <c r="M19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N19" s="61">
+      <c r="N19" s="64">
         <v>3003675980</v>
       </c>
-      <c r="O19" s="60"/>
+      <c r="O19" s="65"/>
     </row>
     <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="58" t="s">
+      <c r="A20" s="63"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="58" t="s">
+      <c r="F20" s="66"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="58"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="60"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="65"/>
       <c r="M20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N20" s="61"/>
-      <c r="O20" s="60"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="65"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="51"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="56"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="54"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="59"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="57"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="62"/>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="37">
+      <c r="A24" s="28">
         <v>1.5</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="68" t="s">
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68" t="s">
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68" t="s">
+      <c r="I24" s="73"/>
+      <c r="J24" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68" t="s">
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="N24" s="68"/>
+      <c r="N24" s="73"/>
       <c r="O24" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="25" t="s">
+      <c r="A25" s="29"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="25" t="s">
+      <c r="F25" s="95"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="25" t="s">
+      <c r="I25" s="75"/>
+      <c r="J25" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="27"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="25" t="s">
+      <c r="K25" s="95"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="26"/>
+      <c r="N25" s="75"/>
       <c r="O25" s="23">
         <v>1998</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="26"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="75"/>
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="37">
+      <c r="A27" s="28">
         <v>1.6</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="62" t="s">
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="63"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="68"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="65"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="70"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="39"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="67"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="72"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
@@ -4145,17 +4144,50 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:D14"/>
-    <mergeCell ref="E6:O8"/>
-    <mergeCell ref="E2:K3"/>
-    <mergeCell ref="E4:K5"/>
-    <mergeCell ref="A6:D8"/>
-    <mergeCell ref="A2:D5"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="B15:D20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B21:D23"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="E21:O23"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E27:O29"/>
+    <mergeCell ref="B24:D26"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:D11"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E12:O14"/>
+    <mergeCell ref="E9:O11"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N18:O18"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
@@ -4172,50 +4204,17 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="B27:D29"/>
-    <mergeCell ref="E27:O29"/>
-    <mergeCell ref="B24:D26"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:D11"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E12:O14"/>
-    <mergeCell ref="E9:O11"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B15:D20"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B21:D23"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="E21:O23"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:D14"/>
+    <mergeCell ref="E6:O8"/>
+    <mergeCell ref="E2:K3"/>
+    <mergeCell ref="E4:K5"/>
+    <mergeCell ref="A6:D8"/>
+    <mergeCell ref="A2:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4223,7 +4222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -4239,36 +4238,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="164"/>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="173" t="s">
+      <c r="A1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="175"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="107"/>
       <c r="L1" s="8" t="s">
         <v>26</v>
       </c>
       <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="167"/>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="178"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="9" t="s">
         <v>47</v>
       </c>
@@ -4277,105 +4276,105 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="167"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="179" t="s">
+      <c r="A3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="181"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="113"/>
       <c r="L3" s="9" t="s">
         <v>48</v>
       </c>
       <c r="M3" s="11">
         <f ca="1">TODAY()</f>
-        <v>43588</v>
+        <v>43948</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="170"/>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
-      <c r="J4" s="183"/>
-      <c r="K4" s="184"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="116"/>
       <c r="L4" s="7" t="s">
         <v>103</v>
       </c>
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="185" t="s">
+      <c r="B5" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="186"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="146" t="s">
+      <c r="C5" s="121"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="194"/>
-      <c r="K5" s="194"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="195"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="131"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="97"/>
-      <c r="B6" s="188"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="197"/>
-      <c r="G6" s="197"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="197"/>
-      <c r="J6" s="197"/>
-      <c r="K6" s="197"/>
-      <c r="L6" s="197"/>
-      <c r="M6" s="198"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="134"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="98"/>
-      <c r="B7" s="191"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="199"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="200"/>
-      <c r="H7" s="200"/>
-      <c r="I7" s="200"/>
-      <c r="J7" s="200"/>
-      <c r="K7" s="200"/>
-      <c r="L7" s="200"/>
-      <c r="M7" s="201"/>
+      <c r="A7" s="119"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="137"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="146" t="s">
+      <c r="C8" s="139"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="129" t="s">
         <v>123</v>
       </c>
       <c r="F8" s="147"/>
@@ -4388,10 +4387,10 @@
       <c r="M8" s="148"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="104"/>
+      <c r="A9" s="118"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="143"/>
       <c r="E9" s="149"/>
       <c r="F9" s="150"/>
       <c r="G9" s="150"/>
@@ -4403,10 +4402,10 @@
       <c r="M9" s="151"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="97"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="104"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="143"/>
       <c r="E10" s="149"/>
       <c r="F10" s="150"/>
       <c r="G10" s="150"/>
@@ -4418,10 +4417,10 @@
       <c r="M10" s="151"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="97"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="143"/>
       <c r="E11" s="149"/>
       <c r="F11" s="150"/>
       <c r="G11" s="150"/>
@@ -4433,10 +4432,10 @@
       <c r="M11" s="151"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="97"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="104"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="143"/>
       <c r="E12" s="149"/>
       <c r="F12" s="150"/>
       <c r="G12" s="150"/>
@@ -4448,10 +4447,10 @@
       <c r="M12" s="151"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="97"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="104"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="143"/>
       <c r="E13" s="149"/>
       <c r="F13" s="150"/>
       <c r="G13" s="150"/>
@@ -4463,10 +4462,10 @@
       <c r="M13" s="151"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="143"/>
       <c r="E14" s="149"/>
       <c r="F14" s="150"/>
       <c r="G14" s="150"/>
@@ -4478,10 +4477,10 @@
       <c r="M14" s="151"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="97"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104"/>
+      <c r="A15" s="118"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="143"/>
       <c r="E15" s="149"/>
       <c r="F15" s="150"/>
       <c r="G15" s="150"/>
@@ -4493,10 +4492,10 @@
       <c r="M15" s="151"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="98"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="107"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="146"/>
       <c r="E16" s="152"/>
       <c r="F16" s="153"/>
       <c r="G16" s="153"/>
@@ -4508,14 +4507,14 @@
       <c r="M16" s="154"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="101"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="140"/>
       <c r="E17" s="155" t="s">
         <v>34</v>
       </c>
@@ -4531,10 +4530,10 @@
       <c r="M17" s="159"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="97"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="104"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="143"/>
       <c r="E18" s="155" t="s">
         <v>36</v>
       </c>
@@ -4548,10 +4547,10 @@
       <c r="M18" s="162"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="97"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="104"/>
+      <c r="A19" s="118"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="143"/>
       <c r="E19" s="155" t="s">
         <v>37</v>
       </c>
@@ -4565,10 +4564,10 @@
       <c r="M19" s="162"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="98"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="107"/>
+      <c r="A20" s="119"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
       <c r="E20" s="155" t="s">
         <v>38</v>
       </c>
@@ -4584,334 +4583,346 @@
       <c r="M20" s="162"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="135" t="s">
+      <c r="A21" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="100"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="137" t="s">
+      <c r="C21" s="139"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="166" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="139"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="167"/>
+      <c r="K21" s="167"/>
+      <c r="L21" s="167"/>
+      <c r="M21" s="168"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="97"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="140" t="s">
+      <c r="A22" s="118"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="169" t="s">
         <v>130</v>
       </c>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="142"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="170"/>
+      <c r="K22" s="170"/>
+      <c r="L22" s="170"/>
+      <c r="M22" s="171"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="97"/>
-      <c r="B23" s="102"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="142"/>
+      <c r="A23" s="118"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="170"/>
+      <c r="K23" s="170"/>
+      <c r="L23" s="170"/>
+      <c r="M23" s="171"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="97"/>
-      <c r="B24" s="102"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="141"/>
-      <c r="K24" s="141"/>
-      <c r="L24" s="141"/>
-      <c r="M24" s="142"/>
+      <c r="A24" s="118"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="170"/>
+      <c r="K24" s="170"/>
+      <c r="L24" s="170"/>
+      <c r="M24" s="171"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="97"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="141"/>
-      <c r="K25" s="141"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="142"/>
+      <c r="A25" s="118"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="170"/>
+      <c r="K25" s="170"/>
+      <c r="L25" s="170"/>
+      <c r="M25" s="171"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="97"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="141"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="142"/>
+      <c r="A26" s="118"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="169"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="170"/>
+      <c r="K26" s="170"/>
+      <c r="L26" s="170"/>
+      <c r="M26" s="171"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="97"/>
-      <c r="B27" s="102"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="142"/>
+      <c r="A27" s="118"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="170"/>
+      <c r="K27" s="170"/>
+      <c r="L27" s="170"/>
+      <c r="M27" s="171"/>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="97"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="142"/>
+      <c r="A28" s="118"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="170"/>
+      <c r="L28" s="170"/>
+      <c r="M28" s="171"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="97"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="141"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="142"/>
+      <c r="A29" s="118"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="170"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="170"/>
+      <c r="K29" s="170"/>
+      <c r="L29" s="170"/>
+      <c r="M29" s="171"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="136"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="144"/>
-      <c r="K30" s="144"/>
-      <c r="L30" s="144"/>
-      <c r="M30" s="145"/>
+      <c r="A30" s="165"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="173"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="173"/>
+      <c r="K30" s="173"/>
+      <c r="L30" s="173"/>
+      <c r="M30" s="174"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="96" t="s">
+      <c r="A31" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="99" t="s">
+      <c r="B31" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="100"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="108" t="s">
+      <c r="C31" s="139"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="175" t="s">
         <v>129</v>
       </c>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="110"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="176"/>
+      <c r="H31" s="176"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="176"/>
+      <c r="K31" s="176"/>
+      <c r="L31" s="176"/>
+      <c r="M31" s="177"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="97"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="112"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="112"/>
-      <c r="M32" s="113"/>
+      <c r="A32" s="118"/>
+      <c r="B32" s="141"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="178"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="179"/>
+      <c r="J32" s="179"/>
+      <c r="K32" s="179"/>
+      <c r="L32" s="179"/>
+      <c r="M32" s="180"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="97"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="112"/>
-      <c r="M33" s="113"/>
+      <c r="A33" s="118"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="179"/>
+      <c r="G33" s="179"/>
+      <c r="H33" s="179"/>
+      <c r="I33" s="179"/>
+      <c r="J33" s="179"/>
+      <c r="K33" s="179"/>
+      <c r="L33" s="179"/>
+      <c r="M33" s="180"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="97"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="112"/>
-      <c r="M34" s="113"/>
+      <c r="A34" s="118"/>
+      <c r="B34" s="141"/>
+      <c r="C34" s="142"/>
+      <c r="D34" s="143"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="179"/>
+      <c r="G34" s="179"/>
+      <c r="H34" s="179"/>
+      <c r="I34" s="179"/>
+      <c r="J34" s="179"/>
+      <c r="K34" s="179"/>
+      <c r="L34" s="179"/>
+      <c r="M34" s="180"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="97"/>
-      <c r="B35" s="102"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="112"/>
-      <c r="K35" s="112"/>
-      <c r="L35" s="112"/>
-      <c r="M35" s="113"/>
+      <c r="A35" s="118"/>
+      <c r="B35" s="141"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="179"/>
+      <c r="G35" s="179"/>
+      <c r="H35" s="179"/>
+      <c r="I35" s="179"/>
+      <c r="J35" s="179"/>
+      <c r="K35" s="179"/>
+      <c r="L35" s="179"/>
+      <c r="M35" s="180"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="98"/>
-      <c r="B36" s="105"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="115"/>
-      <c r="M36" s="116"/>
+      <c r="A36" s="119"/>
+      <c r="B36" s="144"/>
+      <c r="C36" s="145"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="181"/>
+      <c r="F36" s="182"/>
+      <c r="G36" s="182"/>
+      <c r="H36" s="182"/>
+      <c r="I36" s="182"/>
+      <c r="J36" s="182"/>
+      <c r="K36" s="182"/>
+      <c r="L36" s="182"/>
+      <c r="M36" s="183"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="96" t="s">
+      <c r="A37" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="117" t="s">
+      <c r="B37" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="126" t="s">
+      <c r="C37" s="185"/>
+      <c r="D37" s="186"/>
+      <c r="E37" s="193" t="s">
         <v>124</v>
       </c>
-      <c r="F37" s="127"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="127"/>
-      <c r="I37" s="127"/>
-      <c r="J37" s="127"/>
-      <c r="K37" s="127"/>
-      <c r="L37" s="127"/>
-      <c r="M37" s="128"/>
+      <c r="F37" s="194"/>
+      <c r="G37" s="194"/>
+      <c r="H37" s="194"/>
+      <c r="I37" s="194"/>
+      <c r="J37" s="194"/>
+      <c r="K37" s="194"/>
+      <c r="L37" s="194"/>
+      <c r="M37" s="195"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="97"/>
-      <c r="B38" s="120"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="122"/>
-      <c r="E38" s="129"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="130"/>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="130"/>
-      <c r="L38" s="130"/>
-      <c r="M38" s="131"/>
+      <c r="A38" s="118"/>
+      <c r="B38" s="187"/>
+      <c r="C38" s="188"/>
+      <c r="D38" s="189"/>
+      <c r="E38" s="196"/>
+      <c r="F38" s="197"/>
+      <c r="G38" s="197"/>
+      <c r="H38" s="197"/>
+      <c r="I38" s="197"/>
+      <c r="J38" s="197"/>
+      <c r="K38" s="197"/>
+      <c r="L38" s="197"/>
+      <c r="M38" s="198"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="97"/>
-      <c r="B39" s="120"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="122"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="130"/>
-      <c r="I39" s="130"/>
-      <c r="J39" s="130"/>
-      <c r="K39" s="130"/>
-      <c r="L39" s="130"/>
-      <c r="M39" s="131"/>
+      <c r="A39" s="118"/>
+      <c r="B39" s="187"/>
+      <c r="C39" s="188"/>
+      <c r="D39" s="189"/>
+      <c r="E39" s="196"/>
+      <c r="F39" s="197"/>
+      <c r="G39" s="197"/>
+      <c r="H39" s="197"/>
+      <c r="I39" s="197"/>
+      <c r="J39" s="197"/>
+      <c r="K39" s="197"/>
+      <c r="L39" s="197"/>
+      <c r="M39" s="198"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="98"/>
-      <c r="B40" s="123"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="132"/>
-      <c r="F40" s="133"/>
-      <c r="G40" s="133"/>
-      <c r="H40" s="133"/>
-      <c r="I40" s="133"/>
-      <c r="J40" s="133"/>
-      <c r="K40" s="133"/>
-      <c r="L40" s="133"/>
-      <c r="M40" s="134"/>
+      <c r="A40" s="119"/>
+      <c r="B40" s="190"/>
+      <c r="C40" s="191"/>
+      <c r="D40" s="192"/>
+      <c r="E40" s="199"/>
+      <c r="F40" s="200"/>
+      <c r="G40" s="200"/>
+      <c r="H40" s="200"/>
+      <c r="I40" s="200"/>
+      <c r="J40" s="200"/>
+      <c r="K40" s="200"/>
+      <c r="L40" s="200"/>
+      <c r="M40" s="201"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="37">
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:K2"/>
-    <mergeCell ref="E3:K4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:D7"/>
-    <mergeCell ref="E5:M7"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:D36"/>
+    <mergeCell ref="E31:M36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:D40"/>
+    <mergeCell ref="E37:M40"/>
+    <mergeCell ref="A21:A30"/>
+    <mergeCell ref="B21:D30"/>
+    <mergeCell ref="E21:M21"/>
+    <mergeCell ref="E22:M22"/>
+    <mergeCell ref="E23:M23"/>
+    <mergeCell ref="E24:M24"/>
+    <mergeCell ref="E25:M25"/>
+    <mergeCell ref="E26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="E28:M28"/>
+    <mergeCell ref="E29:M29"/>
+    <mergeCell ref="E30:M30"/>
     <mergeCell ref="A8:A16"/>
     <mergeCell ref="B8:D16"/>
     <mergeCell ref="E8:M16"/>
@@ -4925,24 +4936,12 @@
     <mergeCell ref="G19:M19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:M20"/>
-    <mergeCell ref="A21:A30"/>
-    <mergeCell ref="B21:D30"/>
-    <mergeCell ref="E21:M21"/>
-    <mergeCell ref="E22:M22"/>
-    <mergeCell ref="E23:M23"/>
-    <mergeCell ref="E24:M24"/>
-    <mergeCell ref="E25:M25"/>
-    <mergeCell ref="E26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="E28:M28"/>
-    <mergeCell ref="E29:M29"/>
-    <mergeCell ref="E30:M30"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:D36"/>
-    <mergeCell ref="E31:M36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:D40"/>
-    <mergeCell ref="E37:M40"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:K2"/>
+    <mergeCell ref="E3:K4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:D7"/>
+    <mergeCell ref="E5:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4951,7 +4950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
@@ -4969,36 +4968,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="341"/>
-      <c r="B1" s="359"/>
-      <c r="C1" s="359"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="363" t="s">
+      <c r="A1" s="202"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="211" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="364"/>
-      <c r="G1" s="364"/>
-      <c r="H1" s="364"/>
-      <c r="I1" s="364"/>
-      <c r="J1" s="364"/>
-      <c r="K1" s="365"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212"/>
+      <c r="K1" s="213"/>
       <c r="L1" s="13" t="s">
         <v>26</v>
       </c>
       <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="343"/>
-      <c r="B2" s="360"/>
-      <c r="C2" s="360"/>
-      <c r="D2" s="344"/>
-      <c r="E2" s="366"/>
-      <c r="F2" s="322"/>
-      <c r="G2" s="322"/>
-      <c r="H2" s="322"/>
-      <c r="I2" s="322"/>
-      <c r="J2" s="322"/>
-      <c r="K2" s="367"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="216"/>
       <c r="L2" s="15" t="s">
         <v>98</v>
       </c>
@@ -5007,694 +5006,694 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="343"/>
-      <c r="B3" s="360"/>
-      <c r="C3" s="360"/>
-      <c r="D3" s="344"/>
-      <c r="E3" s="324" t="s">
+      <c r="A3" s="205"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="217" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="325"/>
-      <c r="G3" s="325"/>
-      <c r="H3" s="325"/>
-      <c r="I3" s="325"/>
-      <c r="J3" s="325"/>
-      <c r="K3" s="368"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="219"/>
       <c r="L3" s="13" t="s">
         <v>97</v>
       </c>
       <c r="M3" s="17">
         <f ca="1">TODAY()</f>
-        <v>43588</v>
+        <v>43948</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="345"/>
-      <c r="B4" s="361"/>
-      <c r="C4" s="361"/>
-      <c r="D4" s="362"/>
-      <c r="E4" s="329"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
-      <c r="H4" s="330"/>
-      <c r="I4" s="330"/>
-      <c r="J4" s="330"/>
-      <c r="K4" s="369"/>
+      <c r="A4" s="208"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
+      <c r="K4" s="222"/>
       <c r="L4" s="15" t="s">
         <v>96</v>
       </c>
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="341"/>
-      <c r="B5" s="359"/>
-      <c r="C5" s="342"/>
-      <c r="D5" s="347" t="s">
+      <c r="A5" s="202"/>
+      <c r="B5" s="203"/>
+      <c r="C5" s="204"/>
+      <c r="D5" s="225" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="371"/>
-      <c r="F5" s="349"/>
-      <c r="G5" s="349"/>
-      <c r="H5" s="349"/>
-      <c r="I5" s="349"/>
-      <c r="J5" s="349"/>
-      <c r="K5" s="349"/>
-      <c r="L5" s="341"/>
-      <c r="M5" s="342"/>
+      <c r="E5" s="226"/>
+      <c r="F5" s="227"/>
+      <c r="G5" s="227"/>
+      <c r="H5" s="227"/>
+      <c r="I5" s="227"/>
+      <c r="J5" s="227"/>
+      <c r="K5" s="227"/>
+      <c r="L5" s="202"/>
+      <c r="M5" s="204"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="343"/>
-      <c r="B6" s="360"/>
-      <c r="C6" s="344"/>
-      <c r="D6" s="347" t="s">
+      <c r="A6" s="205"/>
+      <c r="B6" s="206"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="225" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="348"/>
-      <c r="F6" s="349"/>
-      <c r="G6" s="349"/>
-      <c r="H6" s="349"/>
-      <c r="I6" s="349"/>
-      <c r="J6" s="349"/>
-      <c r="K6" s="349"/>
-      <c r="L6" s="343"/>
-      <c r="M6" s="344"/>
+      <c r="E6" s="231"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="227"/>
+      <c r="H6" s="227"/>
+      <c r="I6" s="227"/>
+      <c r="J6" s="227"/>
+      <c r="K6" s="227"/>
+      <c r="L6" s="205"/>
+      <c r="M6" s="207"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="343"/>
-      <c r="B7" s="360"/>
-      <c r="C7" s="344"/>
-      <c r="D7" s="347" t="s">
+      <c r="A7" s="205"/>
+      <c r="B7" s="206"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="225" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="348"/>
-      <c r="F7" s="350" t="s">
+      <c r="E7" s="231"/>
+      <c r="F7" s="232" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="350"/>
-      <c r="H7" s="350"/>
-      <c r="I7" s="351" t="s">
+      <c r="G7" s="232"/>
+      <c r="H7" s="232"/>
+      <c r="I7" s="233" t="s">
         <v>108</v>
       </c>
-      <c r="J7" s="350"/>
-      <c r="K7" s="350"/>
-      <c r="L7" s="343"/>
-      <c r="M7" s="344"/>
+      <c r="J7" s="232"/>
+      <c r="K7" s="232"/>
+      <c r="L7" s="205"/>
+      <c r="M7" s="207"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="343"/>
-      <c r="B8" s="360"/>
-      <c r="C8" s="344"/>
-      <c r="D8" s="347" t="s">
+      <c r="A8" s="205"/>
+      <c r="B8" s="206"/>
+      <c r="C8" s="207"/>
+      <c r="D8" s="225" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="348"/>
-      <c r="F8" s="352"/>
-      <c r="G8" s="353"/>
-      <c r="H8" s="353"/>
-      <c r="I8" s="353"/>
-      <c r="J8" s="353"/>
-      <c r="K8" s="354"/>
-      <c r="L8" s="343"/>
-      <c r="M8" s="344"/>
+      <c r="E8" s="231"/>
+      <c r="F8" s="234"/>
+      <c r="G8" s="235"/>
+      <c r="H8" s="235"/>
+      <c r="I8" s="235"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="236"/>
+      <c r="L8" s="205"/>
+      <c r="M8" s="207"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="370"/>
-      <c r="B9" s="361"/>
-      <c r="C9" s="346"/>
-      <c r="D9" s="355" t="s">
+      <c r="A9" s="223"/>
+      <c r="B9" s="209"/>
+      <c r="C9" s="224"/>
+      <c r="D9" s="237" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="356"/>
-      <c r="F9" s="357" t="s">
+      <c r="E9" s="238"/>
+      <c r="F9" s="228" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="358"/>
-      <c r="H9" s="357" t="s">
+      <c r="G9" s="239"/>
+      <c r="H9" s="228" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="372"/>
-      <c r="J9" s="373" t="s">
+      <c r="I9" s="229"/>
+      <c r="J9" s="230" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="372"/>
-      <c r="L9" s="345"/>
-      <c r="M9" s="346"/>
+      <c r="K9" s="229"/>
+      <c r="L9" s="208"/>
+      <c r="M9" s="224"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="284" t="s">
+      <c r="A10" s="240" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="287" t="s">
+      <c r="B10" s="243" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="288"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="324" t="s">
+      <c r="C10" s="244"/>
+      <c r="D10" s="245"/>
+      <c r="E10" s="217" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="325"/>
-      <c r="G10" s="325"/>
-      <c r="H10" s="325"/>
-      <c r="I10" s="325"/>
-      <c r="J10" s="325"/>
-      <c r="K10" s="325"/>
-      <c r="L10" s="325"/>
-      <c r="M10" s="326"/>
+      <c r="F10" s="218"/>
+      <c r="G10" s="218"/>
+      <c r="H10" s="218"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="218"/>
+      <c r="K10" s="218"/>
+      <c r="L10" s="218"/>
+      <c r="M10" s="251"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="285"/>
-      <c r="B11" s="290"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="291"/>
-      <c r="E11" s="327"/>
-      <c r="F11" s="250"/>
-      <c r="G11" s="250"/>
-      <c r="H11" s="250"/>
-      <c r="I11" s="250"/>
-      <c r="J11" s="250"/>
-      <c r="K11" s="250"/>
-      <c r="L11" s="250"/>
-      <c r="M11" s="328"/>
+      <c r="A11" s="241"/>
+      <c r="B11" s="246"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="247"/>
+      <c r="E11" s="252"/>
+      <c r="F11" s="253"/>
+      <c r="G11" s="253"/>
+      <c r="H11" s="253"/>
+      <c r="I11" s="253"/>
+      <c r="J11" s="253"/>
+      <c r="K11" s="253"/>
+      <c r="L11" s="253"/>
+      <c r="M11" s="254"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="286"/>
-      <c r="B12" s="292"/>
-      <c r="C12" s="293"/>
-      <c r="D12" s="294"/>
-      <c r="E12" s="329"/>
-      <c r="F12" s="330"/>
-      <c r="G12" s="330"/>
-      <c r="H12" s="330"/>
-      <c r="I12" s="330"/>
-      <c r="J12" s="330"/>
-      <c r="K12" s="330"/>
-      <c r="L12" s="330"/>
-      <c r="M12" s="331"/>
+      <c r="A12" s="242"/>
+      <c r="B12" s="248"/>
+      <c r="C12" s="249"/>
+      <c r="D12" s="250"/>
+      <c r="E12" s="220"/>
+      <c r="F12" s="221"/>
+      <c r="G12" s="221"/>
+      <c r="H12" s="221"/>
+      <c r="I12" s="221"/>
+      <c r="J12" s="221"/>
+      <c r="K12" s="221"/>
+      <c r="L12" s="221"/>
+      <c r="M12" s="255"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="284" t="s">
+      <c r="A13" s="240" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="287" t="s">
+      <c r="B13" s="243" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="288"/>
-      <c r="D13" s="289"/>
-      <c r="E13" s="332" t="s">
+      <c r="C13" s="244"/>
+      <c r="D13" s="245"/>
+      <c r="E13" s="256" t="s">
         <v>125</v>
       </c>
-      <c r="F13" s="333"/>
-      <c r="G13" s="333"/>
-      <c r="H13" s="333"/>
-      <c r="I13" s="333"/>
-      <c r="J13" s="333"/>
-      <c r="K13" s="333"/>
-      <c r="L13" s="333"/>
-      <c r="M13" s="334"/>
+      <c r="F13" s="257"/>
+      <c r="G13" s="257"/>
+      <c r="H13" s="257"/>
+      <c r="I13" s="257"/>
+      <c r="J13" s="257"/>
+      <c r="K13" s="257"/>
+      <c r="L13" s="257"/>
+      <c r="M13" s="258"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="285"/>
-      <c r="B14" s="290"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="291"/>
-      <c r="E14" s="335"/>
-      <c r="F14" s="336"/>
-      <c r="G14" s="336"/>
-      <c r="H14" s="336"/>
-      <c r="I14" s="336"/>
-      <c r="J14" s="336"/>
-      <c r="K14" s="336"/>
-      <c r="L14" s="336"/>
-      <c r="M14" s="337"/>
+      <c r="A14" s="241"/>
+      <c r="B14" s="246"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="247"/>
+      <c r="E14" s="259"/>
+      <c r="F14" s="260"/>
+      <c r="G14" s="260"/>
+      <c r="H14" s="260"/>
+      <c r="I14" s="260"/>
+      <c r="J14" s="260"/>
+      <c r="K14" s="260"/>
+      <c r="L14" s="260"/>
+      <c r="M14" s="261"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="285"/>
-      <c r="B15" s="290"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="291"/>
-      <c r="E15" s="335"/>
-      <c r="F15" s="336"/>
-      <c r="G15" s="336"/>
-      <c r="H15" s="336"/>
-      <c r="I15" s="336"/>
-      <c r="J15" s="336"/>
-      <c r="K15" s="336"/>
-      <c r="L15" s="336"/>
-      <c r="M15" s="337"/>
+      <c r="A15" s="241"/>
+      <c r="B15" s="246"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="247"/>
+      <c r="E15" s="259"/>
+      <c r="F15" s="260"/>
+      <c r="G15" s="260"/>
+      <c r="H15" s="260"/>
+      <c r="I15" s="260"/>
+      <c r="J15" s="260"/>
+      <c r="K15" s="260"/>
+      <c r="L15" s="260"/>
+      <c r="M15" s="261"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="285"/>
-      <c r="B16" s="290"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="291"/>
-      <c r="E16" s="335"/>
-      <c r="F16" s="336"/>
-      <c r="G16" s="336"/>
-      <c r="H16" s="336"/>
-      <c r="I16" s="336"/>
-      <c r="J16" s="336"/>
-      <c r="K16" s="336"/>
-      <c r="L16" s="336"/>
-      <c r="M16" s="337"/>
+      <c r="A16" s="241"/>
+      <c r="B16" s="246"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="247"/>
+      <c r="E16" s="259"/>
+      <c r="F16" s="260"/>
+      <c r="G16" s="260"/>
+      <c r="H16" s="260"/>
+      <c r="I16" s="260"/>
+      <c r="J16" s="260"/>
+      <c r="K16" s="260"/>
+      <c r="L16" s="260"/>
+      <c r="M16" s="261"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="285"/>
-      <c r="B17" s="290"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="291"/>
-      <c r="E17" s="335"/>
-      <c r="F17" s="336"/>
-      <c r="G17" s="336"/>
-      <c r="H17" s="336"/>
-      <c r="I17" s="336"/>
-      <c r="J17" s="336"/>
-      <c r="K17" s="336"/>
-      <c r="L17" s="336"/>
-      <c r="M17" s="337"/>
+      <c r="A17" s="241"/>
+      <c r="B17" s="246"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="247"/>
+      <c r="E17" s="259"/>
+      <c r="F17" s="260"/>
+      <c r="G17" s="260"/>
+      <c r="H17" s="260"/>
+      <c r="I17" s="260"/>
+      <c r="J17" s="260"/>
+      <c r="K17" s="260"/>
+      <c r="L17" s="260"/>
+      <c r="M17" s="261"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="286"/>
-      <c r="B18" s="292"/>
-      <c r="C18" s="293"/>
-      <c r="D18" s="294"/>
-      <c r="E18" s="338"/>
-      <c r="F18" s="339"/>
-      <c r="G18" s="339"/>
-      <c r="H18" s="339"/>
-      <c r="I18" s="339"/>
-      <c r="J18" s="339"/>
-      <c r="K18" s="339"/>
-      <c r="L18" s="339"/>
-      <c r="M18" s="340"/>
+      <c r="A18" s="242"/>
+      <c r="B18" s="248"/>
+      <c r="C18" s="249"/>
+      <c r="D18" s="250"/>
+      <c r="E18" s="262"/>
+      <c r="F18" s="263"/>
+      <c r="G18" s="263"/>
+      <c r="H18" s="263"/>
+      <c r="I18" s="263"/>
+      <c r="J18" s="263"/>
+      <c r="K18" s="263"/>
+      <c r="L18" s="263"/>
+      <c r="M18" s="264"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="284" t="s">
+      <c r="A19" s="240" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="287" t="s">
+      <c r="B19" s="243" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="288"/>
-      <c r="D19" s="289"/>
-      <c r="E19" s="295" t="s">
+      <c r="C19" s="244"/>
+      <c r="D19" s="245"/>
+      <c r="E19" s="288" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="296"/>
-      <c r="G19" s="296"/>
-      <c r="H19" s="296"/>
-      <c r="I19" s="296"/>
-      <c r="J19" s="296"/>
-      <c r="K19" s="296"/>
-      <c r="L19" s="296"/>
-      <c r="M19" s="297"/>
+      <c r="F19" s="289"/>
+      <c r="G19" s="289"/>
+      <c r="H19" s="289"/>
+      <c r="I19" s="289"/>
+      <c r="J19" s="289"/>
+      <c r="K19" s="289"/>
+      <c r="L19" s="289"/>
+      <c r="M19" s="290"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="285"/>
-      <c r="B20" s="290"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="291"/>
-      <c r="E20" s="298"/>
-      <c r="F20" s="215"/>
-      <c r="G20" s="215"/>
-      <c r="H20" s="215"/>
-      <c r="I20" s="215"/>
-      <c r="J20" s="215"/>
-      <c r="K20" s="215"/>
-      <c r="L20" s="215"/>
-      <c r="M20" s="299"/>
+      <c r="A20" s="241"/>
+      <c r="B20" s="246"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="247"/>
+      <c r="E20" s="276"/>
+      <c r="F20" s="277"/>
+      <c r="G20" s="277"/>
+      <c r="H20" s="277"/>
+      <c r="I20" s="277"/>
+      <c r="J20" s="277"/>
+      <c r="K20" s="277"/>
+      <c r="L20" s="277"/>
+      <c r="M20" s="278"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="285"/>
-      <c r="B21" s="290"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="291"/>
-      <c r="E21" s="298"/>
-      <c r="F21" s="215"/>
-      <c r="G21" s="215"/>
-      <c r="H21" s="215"/>
-      <c r="I21" s="215"/>
-      <c r="J21" s="215"/>
-      <c r="K21" s="215"/>
-      <c r="L21" s="215"/>
-      <c r="M21" s="299"/>
+      <c r="A21" s="241"/>
+      <c r="B21" s="246"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="247"/>
+      <c r="E21" s="276"/>
+      <c r="F21" s="277"/>
+      <c r="G21" s="277"/>
+      <c r="H21" s="277"/>
+      <c r="I21" s="277"/>
+      <c r="J21" s="277"/>
+      <c r="K21" s="277"/>
+      <c r="L21" s="277"/>
+      <c r="M21" s="278"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="285"/>
-      <c r="B22" s="290"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="291"/>
-      <c r="E22" s="298"/>
-      <c r="F22" s="215"/>
-      <c r="G22" s="215"/>
-      <c r="H22" s="215"/>
-      <c r="I22" s="215"/>
-      <c r="J22" s="215"/>
-      <c r="K22" s="215"/>
-      <c r="L22" s="215"/>
-      <c r="M22" s="299"/>
+      <c r="A22" s="241"/>
+      <c r="B22" s="246"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="247"/>
+      <c r="E22" s="276"/>
+      <c r="F22" s="277"/>
+      <c r="G22" s="277"/>
+      <c r="H22" s="277"/>
+      <c r="I22" s="277"/>
+      <c r="J22" s="277"/>
+      <c r="K22" s="277"/>
+      <c r="L22" s="277"/>
+      <c r="M22" s="278"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="285"/>
-      <c r="B23" s="290"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="291"/>
-      <c r="E23" s="298"/>
-      <c r="F23" s="215"/>
-      <c r="G23" s="215"/>
-      <c r="H23" s="215"/>
-      <c r="I23" s="215"/>
-      <c r="J23" s="215"/>
-      <c r="K23" s="215"/>
-      <c r="L23" s="215"/>
-      <c r="M23" s="299"/>
+      <c r="A23" s="241"/>
+      <c r="B23" s="246"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="247"/>
+      <c r="E23" s="276"/>
+      <c r="F23" s="277"/>
+      <c r="G23" s="277"/>
+      <c r="H23" s="277"/>
+      <c r="I23" s="277"/>
+      <c r="J23" s="277"/>
+      <c r="K23" s="277"/>
+      <c r="L23" s="277"/>
+      <c r="M23" s="278"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="286"/>
-      <c r="B24" s="292"/>
-      <c r="C24" s="293"/>
-      <c r="D24" s="294"/>
-      <c r="E24" s="300"/>
-      <c r="F24" s="301"/>
-      <c r="G24" s="301"/>
-      <c r="H24" s="301"/>
-      <c r="I24" s="301"/>
-      <c r="J24" s="301"/>
-      <c r="K24" s="301"/>
-      <c r="L24" s="301"/>
-      <c r="M24" s="302"/>
+      <c r="A24" s="242"/>
+      <c r="B24" s="248"/>
+      <c r="C24" s="249"/>
+      <c r="D24" s="250"/>
+      <c r="E24" s="291"/>
+      <c r="F24" s="292"/>
+      <c r="G24" s="292"/>
+      <c r="H24" s="292"/>
+      <c r="I24" s="292"/>
+      <c r="J24" s="292"/>
+      <c r="K24" s="292"/>
+      <c r="L24" s="292"/>
+      <c r="M24" s="293"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="284" t="s">
+      <c r="A25" s="240" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="100"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="108" t="s">
+      <c r="C25" s="139"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="175" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="247"/>
-      <c r="G25" s="247"/>
-      <c r="H25" s="247"/>
-      <c r="I25" s="247"/>
-      <c r="J25" s="247"/>
-      <c r="K25" s="247"/>
-      <c r="L25" s="247"/>
-      <c r="M25" s="248"/>
+      <c r="F25" s="294"/>
+      <c r="G25" s="294"/>
+      <c r="H25" s="294"/>
+      <c r="I25" s="294"/>
+      <c r="J25" s="294"/>
+      <c r="K25" s="294"/>
+      <c r="L25" s="294"/>
+      <c r="M25" s="295"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="285"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="249"/>
-      <c r="F26" s="250"/>
-      <c r="G26" s="250"/>
-      <c r="H26" s="250"/>
-      <c r="I26" s="250"/>
-      <c r="J26" s="250"/>
-      <c r="K26" s="250"/>
-      <c r="L26" s="250"/>
-      <c r="M26" s="251"/>
+      <c r="A26" s="241"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="296"/>
+      <c r="F26" s="253"/>
+      <c r="G26" s="253"/>
+      <c r="H26" s="253"/>
+      <c r="I26" s="253"/>
+      <c r="J26" s="253"/>
+      <c r="K26" s="253"/>
+      <c r="L26" s="253"/>
+      <c r="M26" s="297"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="285"/>
-      <c r="B27" s="102"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="249"/>
-      <c r="F27" s="250"/>
-      <c r="G27" s="250"/>
-      <c r="H27" s="250"/>
-      <c r="I27" s="250"/>
-      <c r="J27" s="250"/>
-      <c r="K27" s="250"/>
-      <c r="L27" s="250"/>
-      <c r="M27" s="251"/>
+      <c r="A27" s="241"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="296"/>
+      <c r="F27" s="253"/>
+      <c r="G27" s="253"/>
+      <c r="H27" s="253"/>
+      <c r="I27" s="253"/>
+      <c r="J27" s="253"/>
+      <c r="K27" s="253"/>
+      <c r="L27" s="253"/>
+      <c r="M27" s="297"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="285"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="249"/>
-      <c r="F28" s="250"/>
-      <c r="G28" s="250"/>
-      <c r="H28" s="250"/>
-      <c r="I28" s="250"/>
-      <c r="J28" s="250"/>
-      <c r="K28" s="250"/>
-      <c r="L28" s="250"/>
-      <c r="M28" s="251"/>
+      <c r="A28" s="241"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="296"/>
+      <c r="F28" s="253"/>
+      <c r="G28" s="253"/>
+      <c r="H28" s="253"/>
+      <c r="I28" s="253"/>
+      <c r="J28" s="253"/>
+      <c r="K28" s="253"/>
+      <c r="L28" s="253"/>
+      <c r="M28" s="297"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="285"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="249"/>
-      <c r="F29" s="250"/>
-      <c r="G29" s="250"/>
-      <c r="H29" s="250"/>
-      <c r="I29" s="250"/>
-      <c r="J29" s="250"/>
-      <c r="K29" s="250"/>
-      <c r="L29" s="250"/>
-      <c r="M29" s="251"/>
+      <c r="A29" s="241"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="296"/>
+      <c r="F29" s="253"/>
+      <c r="G29" s="253"/>
+      <c r="H29" s="253"/>
+      <c r="I29" s="253"/>
+      <c r="J29" s="253"/>
+      <c r="K29" s="253"/>
+      <c r="L29" s="253"/>
+      <c r="M29" s="297"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="303"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="252"/>
-      <c r="F30" s="253"/>
-      <c r="G30" s="253"/>
-      <c r="H30" s="253"/>
-      <c r="I30" s="253"/>
-      <c r="J30" s="253"/>
-      <c r="K30" s="253"/>
-      <c r="L30" s="253"/>
-      <c r="M30" s="254"/>
+      <c r="A30" s="266"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="298"/>
+      <c r="F30" s="299"/>
+      <c r="G30" s="299"/>
+      <c r="H30" s="299"/>
+      <c r="I30" s="299"/>
+      <c r="J30" s="299"/>
+      <c r="K30" s="299"/>
+      <c r="L30" s="299"/>
+      <c r="M30" s="300"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="304" t="s">
+      <c r="A31" s="265" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="305" t="s">
+      <c r="B31" s="267" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="306"/>
-      <c r="D31" s="307"/>
-      <c r="E31" s="311" t="s">
+      <c r="C31" s="268"/>
+      <c r="D31" s="269"/>
+      <c r="E31" s="273" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="312"/>
-      <c r="G31" s="312"/>
-      <c r="H31" s="312"/>
-      <c r="I31" s="312"/>
-      <c r="J31" s="312"/>
-      <c r="K31" s="312"/>
-      <c r="L31" s="312"/>
-      <c r="M31" s="313"/>
+      <c r="F31" s="274"/>
+      <c r="G31" s="274"/>
+      <c r="H31" s="274"/>
+      <c r="I31" s="274"/>
+      <c r="J31" s="274"/>
+      <c r="K31" s="274"/>
+      <c r="L31" s="274"/>
+      <c r="M31" s="275"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="285"/>
-      <c r="B32" s="290"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="291"/>
-      <c r="E32" s="298"/>
-      <c r="F32" s="215"/>
-      <c r="G32" s="215"/>
-      <c r="H32" s="215"/>
-      <c r="I32" s="215"/>
-      <c r="J32" s="215"/>
-      <c r="K32" s="215"/>
-      <c r="L32" s="215"/>
-      <c r="M32" s="299"/>
+      <c r="A32" s="241"/>
+      <c r="B32" s="246"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="247"/>
+      <c r="E32" s="276"/>
+      <c r="F32" s="277"/>
+      <c r="G32" s="277"/>
+      <c r="H32" s="277"/>
+      <c r="I32" s="277"/>
+      <c r="J32" s="277"/>
+      <c r="K32" s="277"/>
+      <c r="L32" s="277"/>
+      <c r="M32" s="278"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="285"/>
-      <c r="B33" s="290"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="291"/>
-      <c r="E33" s="298"/>
-      <c r="F33" s="215"/>
-      <c r="G33" s="215"/>
-      <c r="H33" s="215"/>
-      <c r="I33" s="215"/>
-      <c r="J33" s="215"/>
-      <c r="K33" s="215"/>
-      <c r="L33" s="215"/>
-      <c r="M33" s="299"/>
+      <c r="A33" s="241"/>
+      <c r="B33" s="246"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="247"/>
+      <c r="E33" s="276"/>
+      <c r="F33" s="277"/>
+      <c r="G33" s="277"/>
+      <c r="H33" s="277"/>
+      <c r="I33" s="277"/>
+      <c r="J33" s="277"/>
+      <c r="K33" s="277"/>
+      <c r="L33" s="277"/>
+      <c r="M33" s="278"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" s="285"/>
-      <c r="B34" s="290"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="291"/>
-      <c r="E34" s="298"/>
-      <c r="F34" s="215"/>
-      <c r="G34" s="215"/>
-      <c r="H34" s="215"/>
-      <c r="I34" s="215"/>
-      <c r="J34" s="215"/>
-      <c r="K34" s="215"/>
-      <c r="L34" s="215"/>
-      <c r="M34" s="299"/>
+      <c r="A34" s="241"/>
+      <c r="B34" s="246"/>
+      <c r="C34" s="142"/>
+      <c r="D34" s="247"/>
+      <c r="E34" s="276"/>
+      <c r="F34" s="277"/>
+      <c r="G34" s="277"/>
+      <c r="H34" s="277"/>
+      <c r="I34" s="277"/>
+      <c r="J34" s="277"/>
+      <c r="K34" s="277"/>
+      <c r="L34" s="277"/>
+      <c r="M34" s="278"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="285"/>
-      <c r="B35" s="290"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="291"/>
-      <c r="E35" s="298"/>
-      <c r="F35" s="215"/>
-      <c r="G35" s="215"/>
-      <c r="H35" s="215"/>
-      <c r="I35" s="215"/>
-      <c r="J35" s="215"/>
-      <c r="K35" s="215"/>
-      <c r="L35" s="215"/>
-      <c r="M35" s="299"/>
+      <c r="A35" s="241"/>
+      <c r="B35" s="246"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="247"/>
+      <c r="E35" s="276"/>
+      <c r="F35" s="277"/>
+      <c r="G35" s="277"/>
+      <c r="H35" s="277"/>
+      <c r="I35" s="277"/>
+      <c r="J35" s="277"/>
+      <c r="K35" s="277"/>
+      <c r="L35" s="277"/>
+      <c r="M35" s="278"/>
     </row>
     <row r="36" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="303"/>
-      <c r="B36" s="308"/>
-      <c r="C36" s="309"/>
-      <c r="D36" s="310"/>
-      <c r="E36" s="314"/>
-      <c r="F36" s="315"/>
-      <c r="G36" s="315"/>
-      <c r="H36" s="315"/>
-      <c r="I36" s="315"/>
-      <c r="J36" s="315"/>
-      <c r="K36" s="315"/>
-      <c r="L36" s="315"/>
-      <c r="M36" s="316"/>
+      <c r="A36" s="266"/>
+      <c r="B36" s="270"/>
+      <c r="C36" s="271"/>
+      <c r="D36" s="272"/>
+      <c r="E36" s="279"/>
+      <c r="F36" s="280"/>
+      <c r="G36" s="280"/>
+      <c r="H36" s="280"/>
+      <c r="I36" s="280"/>
+      <c r="J36" s="280"/>
+      <c r="K36" s="280"/>
+      <c r="L36" s="280"/>
+      <c r="M36" s="281"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A37" s="304" t="s">
+      <c r="A37" s="265" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="317" t="s">
+      <c r="B37" s="282" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="318"/>
-      <c r="D37" s="318"/>
-      <c r="E37" s="318"/>
-      <c r="F37" s="318"/>
-      <c r="G37" s="318"/>
-      <c r="H37" s="318"/>
-      <c r="I37" s="318"/>
-      <c r="J37" s="318"/>
-      <c r="K37" s="318"/>
-      <c r="L37" s="318"/>
-      <c r="M37" s="319"/>
+      <c r="C37" s="283"/>
+      <c r="D37" s="283"/>
+      <c r="E37" s="283"/>
+      <c r="F37" s="283"/>
+      <c r="G37" s="283"/>
+      <c r="H37" s="283"/>
+      <c r="I37" s="283"/>
+      <c r="J37" s="283"/>
+      <c r="K37" s="283"/>
+      <c r="L37" s="283"/>
+      <c r="M37" s="284"/>
     </row>
     <row r="38" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="286"/>
-      <c r="B38" s="320"/>
-      <c r="C38" s="321"/>
-      <c r="D38" s="321"/>
-      <c r="E38" s="322"/>
-      <c r="F38" s="322"/>
-      <c r="G38" s="322"/>
-      <c r="H38" s="322"/>
-      <c r="I38" s="322"/>
-      <c r="J38" s="322"/>
-      <c r="K38" s="322"/>
-      <c r="L38" s="322"/>
-      <c r="M38" s="323"/>
+      <c r="A38" s="242"/>
+      <c r="B38" s="285"/>
+      <c r="C38" s="286"/>
+      <c r="D38" s="286"/>
+      <c r="E38" s="215"/>
+      <c r="F38" s="215"/>
+      <c r="G38" s="215"/>
+      <c r="H38" s="215"/>
+      <c r="I38" s="215"/>
+      <c r="J38" s="215"/>
+      <c r="K38" s="215"/>
+      <c r="L38" s="215"/>
+      <c r="M38" s="287"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" s="255" t="s">
+      <c r="A39" s="301" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="269" t="s">
+      <c r="B39" s="303" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="270"/>
-      <c r="D39" s="271"/>
-      <c r="E39" s="275" t="s">
+      <c r="C39" s="304"/>
+      <c r="D39" s="305"/>
+      <c r="E39" s="312" t="s">
         <v>132</v>
       </c>
-      <c r="F39" s="276"/>
-      <c r="G39" s="276"/>
-      <c r="H39" s="276"/>
-      <c r="I39" s="276"/>
-      <c r="J39" s="276"/>
-      <c r="K39" s="276"/>
-      <c r="L39" s="276"/>
-      <c r="M39" s="277"/>
+      <c r="F39" s="313"/>
+      <c r="G39" s="313"/>
+      <c r="H39" s="313"/>
+      <c r="I39" s="313"/>
+      <c r="J39" s="313"/>
+      <c r="K39" s="313"/>
+      <c r="L39" s="313"/>
+      <c r="M39" s="314"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A40" s="260"/>
-      <c r="B40" s="264"/>
-      <c r="C40" s="224"/>
-      <c r="D40" s="265"/>
-      <c r="E40" s="278"/>
-      <c r="F40" s="279"/>
-      <c r="G40" s="279"/>
-      <c r="H40" s="279"/>
-      <c r="I40" s="279"/>
-      <c r="J40" s="279"/>
-      <c r="K40" s="279"/>
-      <c r="L40" s="279"/>
-      <c r="M40" s="280"/>
+      <c r="A40" s="302"/>
+      <c r="B40" s="306"/>
+      <c r="C40" s="307"/>
+      <c r="D40" s="308"/>
+      <c r="E40" s="315"/>
+      <c r="F40" s="316"/>
+      <c r="G40" s="316"/>
+      <c r="H40" s="316"/>
+      <c r="I40" s="316"/>
+      <c r="J40" s="316"/>
+      <c r="K40" s="316"/>
+      <c r="L40" s="316"/>
+      <c r="M40" s="317"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A41" s="260"/>
-      <c r="B41" s="264"/>
-      <c r="C41" s="224"/>
-      <c r="D41" s="265"/>
-      <c r="E41" s="278"/>
-      <c r="F41" s="279"/>
-      <c r="G41" s="279"/>
-      <c r="H41" s="279"/>
-      <c r="I41" s="279"/>
-      <c r="J41" s="279"/>
-      <c r="K41" s="279"/>
-      <c r="L41" s="279"/>
-      <c r="M41" s="280"/>
+      <c r="A41" s="302"/>
+      <c r="B41" s="306"/>
+      <c r="C41" s="307"/>
+      <c r="D41" s="308"/>
+      <c r="E41" s="315"/>
+      <c r="F41" s="316"/>
+      <c r="G41" s="316"/>
+      <c r="H41" s="316"/>
+      <c r="I41" s="316"/>
+      <c r="J41" s="316"/>
+      <c r="K41" s="316"/>
+      <c r="L41" s="316"/>
+      <c r="M41" s="317"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="260"/>
-      <c r="B42" s="272"/>
-      <c r="C42" s="273"/>
-      <c r="D42" s="274"/>
-      <c r="E42" s="281"/>
-      <c r="F42" s="282"/>
-      <c r="G42" s="282"/>
-      <c r="H42" s="282"/>
-      <c r="I42" s="282"/>
-      <c r="J42" s="282"/>
-      <c r="K42" s="282"/>
-      <c r="L42" s="282"/>
-      <c r="M42" s="283"/>
+      <c r="A42" s="302"/>
+      <c r="B42" s="309"/>
+      <c r="C42" s="310"/>
+      <c r="D42" s="311"/>
+      <c r="E42" s="318"/>
+      <c r="F42" s="319"/>
+      <c r="G42" s="319"/>
+      <c r="H42" s="319"/>
+      <c r="I42" s="319"/>
+      <c r="J42" s="319"/>
+      <c r="K42" s="319"/>
+      <c r="L42" s="319"/>
+      <c r="M42" s="320"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A43" s="260" t="s">
+      <c r="A43" s="302" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="261" t="s">
+      <c r="B43" s="333" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="262"/>
-      <c r="D43" s="263"/>
-      <c r="E43" s="108" t="s">
+      <c r="C43" s="334"/>
+      <c r="D43" s="335"/>
+      <c r="E43" s="175" t="s">
         <v>126</v>
       </c>
-      <c r="F43" s="109"/>
-      <c r="G43" s="109"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="109"/>
-      <c r="J43" s="109"/>
-      <c r="K43" s="109"/>
-      <c r="L43" s="109"/>
-      <c r="M43" s="110"/>
+      <c r="F43" s="176"/>
+      <c r="G43" s="176"/>
+      <c r="H43" s="176"/>
+      <c r="I43" s="176"/>
+      <c r="J43" s="176"/>
+      <c r="K43" s="176"/>
+      <c r="L43" s="176"/>
+      <c r="M43" s="177"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -5710,19 +5709,19 @@
       <c r="AA43" s="1"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A44" s="260"/>
-      <c r="B44" s="264"/>
-      <c r="C44" s="224"/>
-      <c r="D44" s="265"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="112"/>
-      <c r="H44" s="112"/>
-      <c r="I44" s="112"/>
-      <c r="J44" s="112"/>
-      <c r="K44" s="112"/>
-      <c r="L44" s="112"/>
-      <c r="M44" s="113"/>
+      <c r="A44" s="302"/>
+      <c r="B44" s="306"/>
+      <c r="C44" s="307"/>
+      <c r="D44" s="308"/>
+      <c r="E44" s="178"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="179"/>
+      <c r="H44" s="179"/>
+      <c r="I44" s="179"/>
+      <c r="J44" s="179"/>
+      <c r="K44" s="179"/>
+      <c r="L44" s="179"/>
+      <c r="M44" s="180"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -5738,19 +5737,19 @@
       <c r="AA44" s="1"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A45" s="260"/>
-      <c r="B45" s="264"/>
-      <c r="C45" s="224"/>
-      <c r="D45" s="265"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="112"/>
-      <c r="H45" s="112"/>
-      <c r="I45" s="112"/>
-      <c r="J45" s="112"/>
-      <c r="K45" s="112"/>
-      <c r="L45" s="112"/>
-      <c r="M45" s="113"/>
+      <c r="A45" s="302"/>
+      <c r="B45" s="306"/>
+      <c r="C45" s="307"/>
+      <c r="D45" s="308"/>
+      <c r="E45" s="178"/>
+      <c r="F45" s="179"/>
+      <c r="G45" s="179"/>
+      <c r="H45" s="179"/>
+      <c r="I45" s="179"/>
+      <c r="J45" s="179"/>
+      <c r="K45" s="179"/>
+      <c r="L45" s="179"/>
+      <c r="M45" s="180"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -5766,19 +5765,19 @@
       <c r="AA45" s="1"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="260"/>
-      <c r="B46" s="266"/>
-      <c r="C46" s="267"/>
-      <c r="D46" s="268"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="115"/>
-      <c r="J46" s="115"/>
-      <c r="K46" s="115"/>
-      <c r="L46" s="115"/>
-      <c r="M46" s="116"/>
+      <c r="A46" s="302"/>
+      <c r="B46" s="336"/>
+      <c r="C46" s="337"/>
+      <c r="D46" s="338"/>
+      <c r="E46" s="181"/>
+      <c r="F46" s="182"/>
+      <c r="G46" s="182"/>
+      <c r="H46" s="182"/>
+      <c r="I46" s="182"/>
+      <c r="J46" s="182"/>
+      <c r="K46" s="182"/>
+      <c r="L46" s="182"/>
+      <c r="M46" s="183"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -5794,136 +5793,136 @@
       <c r="AA46" s="1"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A47" s="260" t="s">
+      <c r="A47" s="302" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="269" t="s">
+      <c r="B47" s="303" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="270"/>
-      <c r="D47" s="271"/>
-      <c r="E47" s="108" t="s">
+      <c r="C47" s="304"/>
+      <c r="D47" s="305"/>
+      <c r="E47" s="175" t="s">
         <v>133</v>
       </c>
-      <c r="F47" s="109"/>
-      <c r="G47" s="109"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="109"/>
-      <c r="J47" s="109"/>
-      <c r="K47" s="109"/>
-      <c r="L47" s="109"/>
-      <c r="M47" s="110"/>
+      <c r="F47" s="176"/>
+      <c r="G47" s="176"/>
+      <c r="H47" s="176"/>
+      <c r="I47" s="176"/>
+      <c r="J47" s="176"/>
+      <c r="K47" s="176"/>
+      <c r="L47" s="176"/>
+      <c r="M47" s="177"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A48" s="260"/>
-      <c r="B48" s="264"/>
-      <c r="C48" s="224"/>
-      <c r="D48" s="265"/>
-      <c r="E48" s="111"/>
-      <c r="F48" s="112"/>
-      <c r="G48" s="112"/>
-      <c r="H48" s="112"/>
-      <c r="I48" s="112"/>
-      <c r="J48" s="112"/>
-      <c r="K48" s="112"/>
-      <c r="L48" s="112"/>
-      <c r="M48" s="113"/>
+      <c r="A48" s="302"/>
+      <c r="B48" s="306"/>
+      <c r="C48" s="307"/>
+      <c r="D48" s="308"/>
+      <c r="E48" s="178"/>
+      <c r="F48" s="179"/>
+      <c r="G48" s="179"/>
+      <c r="H48" s="179"/>
+      <c r="I48" s="179"/>
+      <c r="J48" s="179"/>
+      <c r="K48" s="179"/>
+      <c r="L48" s="179"/>
+      <c r="M48" s="180"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="260"/>
-      <c r="B49" s="264"/>
-      <c r="C49" s="224"/>
-      <c r="D49" s="265"/>
-      <c r="E49" s="111"/>
-      <c r="F49" s="112"/>
-      <c r="G49" s="112"/>
-      <c r="H49" s="112"/>
-      <c r="I49" s="112"/>
-      <c r="J49" s="112"/>
-      <c r="K49" s="112"/>
-      <c r="L49" s="112"/>
-      <c r="M49" s="113"/>
+      <c r="A49" s="302"/>
+      <c r="B49" s="306"/>
+      <c r="C49" s="307"/>
+      <c r="D49" s="308"/>
+      <c r="E49" s="178"/>
+      <c r="F49" s="179"/>
+      <c r="G49" s="179"/>
+      <c r="H49" s="179"/>
+      <c r="I49" s="179"/>
+      <c r="J49" s="179"/>
+      <c r="K49" s="179"/>
+      <c r="L49" s="179"/>
+      <c r="M49" s="180"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="256"/>
-      <c r="B50" s="272"/>
-      <c r="C50" s="273"/>
-      <c r="D50" s="274"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="115"/>
-      <c r="H50" s="115"/>
-      <c r="I50" s="115"/>
-      <c r="J50" s="115"/>
-      <c r="K50" s="115"/>
-      <c r="L50" s="115"/>
-      <c r="M50" s="116"/>
+      <c r="A50" s="329"/>
+      <c r="B50" s="309"/>
+      <c r="C50" s="310"/>
+      <c r="D50" s="311"/>
+      <c r="E50" s="181"/>
+      <c r="F50" s="182"/>
+      <c r="G50" s="182"/>
+      <c r="H50" s="182"/>
+      <c r="I50" s="182"/>
+      <c r="J50" s="182"/>
+      <c r="K50" s="182"/>
+      <c r="L50" s="182"/>
+      <c r="M50" s="183"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="96" t="s">
+      <c r="A51" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="220" t="s">
+      <c r="B51" s="321" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="221"/>
-      <c r="D51" s="222"/>
-      <c r="E51" s="108" t="s">
+      <c r="C51" s="322"/>
+      <c r="D51" s="323"/>
+      <c r="E51" s="175" t="s">
         <v>127</v>
       </c>
-      <c r="F51" s="109"/>
-      <c r="G51" s="109"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="109"/>
-      <c r="J51" s="109"/>
-      <c r="K51" s="109"/>
-      <c r="L51" s="109"/>
-      <c r="M51" s="110"/>
+      <c r="F51" s="176"/>
+      <c r="G51" s="176"/>
+      <c r="H51" s="176"/>
+      <c r="I51" s="176"/>
+      <c r="J51" s="176"/>
+      <c r="K51" s="176"/>
+      <c r="L51" s="176"/>
+      <c r="M51" s="177"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="97"/>
-      <c r="B52" s="223"/>
-      <c r="C52" s="224"/>
-      <c r="D52" s="225"/>
-      <c r="E52" s="111"/>
-      <c r="F52" s="112"/>
-      <c r="G52" s="112"/>
-      <c r="H52" s="112"/>
-      <c r="I52" s="112"/>
-      <c r="J52" s="112"/>
-      <c r="K52" s="112"/>
-      <c r="L52" s="112"/>
-      <c r="M52" s="113"/>
+      <c r="A52" s="118"/>
+      <c r="B52" s="324"/>
+      <c r="C52" s="307"/>
+      <c r="D52" s="325"/>
+      <c r="E52" s="178"/>
+      <c r="F52" s="179"/>
+      <c r="G52" s="179"/>
+      <c r="H52" s="179"/>
+      <c r="I52" s="179"/>
+      <c r="J52" s="179"/>
+      <c r="K52" s="179"/>
+      <c r="L52" s="179"/>
+      <c r="M52" s="180"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="97"/>
-      <c r="B53" s="223"/>
-      <c r="C53" s="224"/>
-      <c r="D53" s="225"/>
-      <c r="E53" s="111"/>
-      <c r="F53" s="112"/>
-      <c r="G53" s="112"/>
-      <c r="H53" s="112"/>
-      <c r="I53" s="112"/>
-      <c r="J53" s="112"/>
-      <c r="K53" s="112"/>
-      <c r="L53" s="112"/>
-      <c r="M53" s="113"/>
+      <c r="A53" s="118"/>
+      <c r="B53" s="324"/>
+      <c r="C53" s="307"/>
+      <c r="D53" s="325"/>
+      <c r="E53" s="178"/>
+      <c r="F53" s="179"/>
+      <c r="G53" s="179"/>
+      <c r="H53" s="179"/>
+      <c r="I53" s="179"/>
+      <c r="J53" s="179"/>
+      <c r="K53" s="179"/>
+      <c r="L53" s="179"/>
+      <c r="M53" s="180"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="98"/>
-      <c r="B54" s="226"/>
-      <c r="C54" s="227"/>
-      <c r="D54" s="228"/>
-      <c r="E54" s="114"/>
-      <c r="F54" s="115"/>
-      <c r="G54" s="115"/>
-      <c r="H54" s="115"/>
-      <c r="I54" s="115"/>
-      <c r="J54" s="115"/>
-      <c r="K54" s="115"/>
-      <c r="L54" s="115"/>
-      <c r="M54" s="116"/>
+      <c r="A54" s="119"/>
+      <c r="B54" s="326"/>
+      <c r="C54" s="327"/>
+      <c r="D54" s="328"/>
+      <c r="E54" s="181"/>
+      <c r="F54" s="182"/>
+      <c r="G54" s="182"/>
+      <c r="H54" s="182"/>
+      <c r="I54" s="182"/>
+      <c r="J54" s="182"/>
+      <c r="K54" s="182"/>
+      <c r="L54" s="182"/>
+      <c r="M54" s="183"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
@@ -5990,831 +5989,785 @@
       <c r="N58" s="1"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="96" t="s">
+      <c r="A59" s="117" t="s">
         <v>111</v>
       </c>
-      <c r="B59" s="220" t="s">
+      <c r="B59" s="321" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="221"/>
-      <c r="D59" s="222"/>
-      <c r="E59" s="108" t="s">
+      <c r="C59" s="322"/>
+      <c r="D59" s="323"/>
+      <c r="E59" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="F59" s="109"/>
-      <c r="G59" s="109"/>
-      <c r="H59" s="109"/>
-      <c r="I59" s="109"/>
-      <c r="J59" s="109"/>
-      <c r="K59" s="109"/>
-      <c r="L59" s="109"/>
-      <c r="M59" s="110"/>
+      <c r="F59" s="176"/>
+      <c r="G59" s="176"/>
+      <c r="H59" s="176"/>
+      <c r="I59" s="176"/>
+      <c r="J59" s="176"/>
+      <c r="K59" s="176"/>
+      <c r="L59" s="176"/>
+      <c r="M59" s="177"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="97"/>
-      <c r="B60" s="223"/>
-      <c r="C60" s="224"/>
-      <c r="D60" s="225"/>
-      <c r="E60" s="111"/>
-      <c r="F60" s="112"/>
-      <c r="G60" s="112"/>
-      <c r="H60" s="112"/>
-      <c r="I60" s="112"/>
-      <c r="J60" s="112"/>
-      <c r="K60" s="112"/>
-      <c r="L60" s="112"/>
-      <c r="M60" s="113"/>
+      <c r="A60" s="118"/>
+      <c r="B60" s="324"/>
+      <c r="C60" s="307"/>
+      <c r="D60" s="325"/>
+      <c r="E60" s="178"/>
+      <c r="F60" s="179"/>
+      <c r="G60" s="179"/>
+      <c r="H60" s="179"/>
+      <c r="I60" s="179"/>
+      <c r="J60" s="179"/>
+      <c r="K60" s="179"/>
+      <c r="L60" s="179"/>
+      <c r="M60" s="180"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="97"/>
-      <c r="B61" s="223"/>
-      <c r="C61" s="224"/>
-      <c r="D61" s="225"/>
-      <c r="E61" s="111"/>
-      <c r="F61" s="112"/>
-      <c r="G61" s="112"/>
-      <c r="H61" s="112"/>
-      <c r="I61" s="112"/>
-      <c r="J61" s="112"/>
-      <c r="K61" s="112"/>
-      <c r="L61" s="112"/>
-      <c r="M61" s="113"/>
+      <c r="A61" s="118"/>
+      <c r="B61" s="324"/>
+      <c r="C61" s="307"/>
+      <c r="D61" s="325"/>
+      <c r="E61" s="178"/>
+      <c r="F61" s="179"/>
+      <c r="G61" s="179"/>
+      <c r="H61" s="179"/>
+      <c r="I61" s="179"/>
+      <c r="J61" s="179"/>
+      <c r="K61" s="179"/>
+      <c r="L61" s="179"/>
+      <c r="M61" s="180"/>
     </row>
     <row r="62" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="98"/>
-      <c r="B62" s="226"/>
-      <c r="C62" s="227"/>
-      <c r="D62" s="228"/>
-      <c r="E62" s="114"/>
-      <c r="F62" s="115"/>
-      <c r="G62" s="115"/>
-      <c r="H62" s="115"/>
-      <c r="I62" s="115"/>
-      <c r="J62" s="115"/>
-      <c r="K62" s="115"/>
-      <c r="L62" s="115"/>
-      <c r="M62" s="116"/>
+      <c r="A62" s="119"/>
+      <c r="B62" s="326"/>
+      <c r="C62" s="327"/>
+      <c r="D62" s="328"/>
+      <c r="E62" s="181"/>
+      <c r="F62" s="182"/>
+      <c r="G62" s="182"/>
+      <c r="H62" s="182"/>
+      <c r="I62" s="182"/>
+      <c r="J62" s="182"/>
+      <c r="K62" s="182"/>
+      <c r="L62" s="182"/>
+      <c r="M62" s="183"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="255" t="s">
+      <c r="A63" s="301" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="257" t="s">
+      <c r="B63" s="330" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="258"/>
-      <c r="D63" s="258"/>
-      <c r="E63" s="258"/>
-      <c r="F63" s="258"/>
-      <c r="G63" s="258"/>
-      <c r="H63" s="258"/>
-      <c r="I63" s="258"/>
-      <c r="J63" s="258"/>
-      <c r="K63" s="258"/>
-      <c r="L63" s="258"/>
-      <c r="M63" s="259"/>
+      <c r="C63" s="331"/>
+      <c r="D63" s="331"/>
+      <c r="E63" s="331"/>
+      <c r="F63" s="331"/>
+      <c r="G63" s="331"/>
+      <c r="H63" s="331"/>
+      <c r="I63" s="331"/>
+      <c r="J63" s="331"/>
+      <c r="K63" s="331"/>
+      <c r="L63" s="331"/>
+      <c r="M63" s="332"/>
     </row>
     <row r="64" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="256"/>
-      <c r="B64" s="257"/>
-      <c r="C64" s="258"/>
-      <c r="D64" s="258"/>
-      <c r="E64" s="258"/>
-      <c r="F64" s="258"/>
-      <c r="G64" s="258"/>
-      <c r="H64" s="258"/>
-      <c r="I64" s="258"/>
-      <c r="J64" s="258"/>
-      <c r="K64" s="258"/>
-      <c r="L64" s="258"/>
-      <c r="M64" s="259"/>
+      <c r="A64" s="329"/>
+      <c r="B64" s="330"/>
+      <c r="C64" s="331"/>
+      <c r="D64" s="331"/>
+      <c r="E64" s="331"/>
+      <c r="F64" s="331"/>
+      <c r="G64" s="331"/>
+      <c r="H64" s="331"/>
+      <c r="I64" s="331"/>
+      <c r="J64" s="331"/>
+      <c r="K64" s="331"/>
+      <c r="L64" s="331"/>
+      <c r="M64" s="332"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="96" t="s">
+      <c r="A65" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="202" t="s">
+      <c r="B65" s="339" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="203"/>
-      <c r="D65" s="204"/>
-      <c r="E65" s="211" t="s">
+      <c r="C65" s="340"/>
+      <c r="D65" s="341"/>
+      <c r="E65" s="364" t="s">
         <v>105</v>
       </c>
-      <c r="F65" s="212"/>
-      <c r="G65" s="212"/>
-      <c r="H65" s="212"/>
-      <c r="I65" s="212"/>
-      <c r="J65" s="212"/>
-      <c r="K65" s="212"/>
-      <c r="L65" s="212"/>
-      <c r="M65" s="213"/>
+      <c r="F65" s="348"/>
+      <c r="G65" s="348"/>
+      <c r="H65" s="348"/>
+      <c r="I65" s="348"/>
+      <c r="J65" s="348"/>
+      <c r="K65" s="348"/>
+      <c r="L65" s="348"/>
+      <c r="M65" s="349"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="97"/>
-      <c r="B66" s="205"/>
-      <c r="C66" s="206"/>
-      <c r="D66" s="207"/>
-      <c r="E66" s="214"/>
-      <c r="F66" s="215"/>
-      <c r="G66" s="215"/>
-      <c r="H66" s="215"/>
-      <c r="I66" s="215"/>
-      <c r="J66" s="215"/>
-      <c r="K66" s="215"/>
-      <c r="L66" s="215"/>
-      <c r="M66" s="216"/>
+      <c r="A66" s="118"/>
+      <c r="B66" s="342"/>
+      <c r="C66" s="343"/>
+      <c r="D66" s="344"/>
+      <c r="E66" s="350"/>
+      <c r="F66" s="277"/>
+      <c r="G66" s="277"/>
+      <c r="H66" s="277"/>
+      <c r="I66" s="277"/>
+      <c r="J66" s="277"/>
+      <c r="K66" s="277"/>
+      <c r="L66" s="277"/>
+      <c r="M66" s="351"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="97"/>
-      <c r="B67" s="205"/>
-      <c r="C67" s="206"/>
-      <c r="D67" s="207"/>
-      <c r="E67" s="214"/>
-      <c r="F67" s="215"/>
-      <c r="G67" s="215"/>
-      <c r="H67" s="215"/>
-      <c r="I67" s="215"/>
-      <c r="J67" s="215"/>
-      <c r="K67" s="215"/>
-      <c r="L67" s="215"/>
-      <c r="M67" s="216"/>
+      <c r="A67" s="118"/>
+      <c r="B67" s="342"/>
+      <c r="C67" s="343"/>
+      <c r="D67" s="344"/>
+      <c r="E67" s="350"/>
+      <c r="F67" s="277"/>
+      <c r="G67" s="277"/>
+      <c r="H67" s="277"/>
+      <c r="I67" s="277"/>
+      <c r="J67" s="277"/>
+      <c r="K67" s="277"/>
+      <c r="L67" s="277"/>
+      <c r="M67" s="351"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="97"/>
-      <c r="B68" s="205"/>
-      <c r="C68" s="206"/>
-      <c r="D68" s="207"/>
-      <c r="E68" s="214"/>
-      <c r="F68" s="215"/>
-      <c r="G68" s="215"/>
-      <c r="H68" s="215"/>
-      <c r="I68" s="215"/>
-      <c r="J68" s="215"/>
-      <c r="K68" s="215"/>
-      <c r="L68" s="215"/>
-      <c r="M68" s="216"/>
+      <c r="A68" s="118"/>
+      <c r="B68" s="342"/>
+      <c r="C68" s="343"/>
+      <c r="D68" s="344"/>
+      <c r="E68" s="350"/>
+      <c r="F68" s="277"/>
+      <c r="G68" s="277"/>
+      <c r="H68" s="277"/>
+      <c r="I68" s="277"/>
+      <c r="J68" s="277"/>
+      <c r="K68" s="277"/>
+      <c r="L68" s="277"/>
+      <c r="M68" s="351"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="97"/>
-      <c r="B69" s="205"/>
-      <c r="C69" s="206"/>
-      <c r="D69" s="207"/>
-      <c r="E69" s="214"/>
-      <c r="F69" s="215"/>
-      <c r="G69" s="215"/>
-      <c r="H69" s="215"/>
-      <c r="I69" s="215"/>
-      <c r="J69" s="215"/>
-      <c r="K69" s="215"/>
-      <c r="L69" s="215"/>
-      <c r="M69" s="216"/>
+      <c r="A69" s="118"/>
+      <c r="B69" s="342"/>
+      <c r="C69" s="343"/>
+      <c r="D69" s="344"/>
+      <c r="E69" s="350"/>
+      <c r="F69" s="277"/>
+      <c r="G69" s="277"/>
+      <c r="H69" s="277"/>
+      <c r="I69" s="277"/>
+      <c r="J69" s="277"/>
+      <c r="K69" s="277"/>
+      <c r="L69" s="277"/>
+      <c r="M69" s="351"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="98"/>
-      <c r="B70" s="208"/>
-      <c r="C70" s="209"/>
-      <c r="D70" s="210"/>
-      <c r="E70" s="217"/>
-      <c r="F70" s="218"/>
-      <c r="G70" s="218"/>
-      <c r="H70" s="218"/>
-      <c r="I70" s="218"/>
-      <c r="J70" s="218"/>
-      <c r="K70" s="218"/>
-      <c r="L70" s="218"/>
-      <c r="M70" s="219"/>
+      <c r="A70" s="119"/>
+      <c r="B70" s="345"/>
+      <c r="C70" s="346"/>
+      <c r="D70" s="347"/>
+      <c r="E70" s="352"/>
+      <c r="F70" s="353"/>
+      <c r="G70" s="353"/>
+      <c r="H70" s="353"/>
+      <c r="I70" s="353"/>
+      <c r="J70" s="353"/>
+      <c r="K70" s="353"/>
+      <c r="L70" s="353"/>
+      <c r="M70" s="354"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="96" t="s">
+      <c r="A71" s="117" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="220" t="s">
+      <c r="B71" s="321" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="221"/>
-      <c r="D71" s="222"/>
-      <c r="E71" s="229" t="s">
+      <c r="C71" s="322"/>
+      <c r="D71" s="323"/>
+      <c r="E71" s="365" t="s">
         <v>134</v>
       </c>
-      <c r="F71" s="230"/>
-      <c r="G71" s="230"/>
-      <c r="H71" s="230"/>
-      <c r="I71" s="230"/>
-      <c r="J71" s="230"/>
-      <c r="K71" s="230"/>
-      <c r="L71" s="230"/>
-      <c r="M71" s="231"/>
+      <c r="F71" s="366"/>
+      <c r="G71" s="366"/>
+      <c r="H71" s="366"/>
+      <c r="I71" s="366"/>
+      <c r="J71" s="366"/>
+      <c r="K71" s="366"/>
+      <c r="L71" s="366"/>
+      <c r="M71" s="367"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="97"/>
-      <c r="B72" s="223"/>
-      <c r="C72" s="224"/>
-      <c r="D72" s="225"/>
-      <c r="E72" s="232"/>
-      <c r="F72" s="233"/>
-      <c r="G72" s="233"/>
-      <c r="H72" s="233"/>
-      <c r="I72" s="233"/>
-      <c r="J72" s="233"/>
-      <c r="K72" s="233"/>
-      <c r="L72" s="233"/>
-      <c r="M72" s="234"/>
+      <c r="A72" s="118"/>
+      <c r="B72" s="324"/>
+      <c r="C72" s="307"/>
+      <c r="D72" s="325"/>
+      <c r="E72" s="368"/>
+      <c r="F72" s="369"/>
+      <c r="G72" s="369"/>
+      <c r="H72" s="369"/>
+      <c r="I72" s="369"/>
+      <c r="J72" s="369"/>
+      <c r="K72" s="369"/>
+      <c r="L72" s="369"/>
+      <c r="M72" s="370"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="97"/>
-      <c r="B73" s="223"/>
-      <c r="C73" s="224"/>
-      <c r="D73" s="225"/>
-      <c r="E73" s="232"/>
-      <c r="F73" s="233"/>
-      <c r="G73" s="233"/>
-      <c r="H73" s="233"/>
-      <c r="I73" s="233"/>
-      <c r="J73" s="233"/>
-      <c r="K73" s="233"/>
-      <c r="L73" s="233"/>
-      <c r="M73" s="234"/>
+      <c r="A73" s="118"/>
+      <c r="B73" s="324"/>
+      <c r="C73" s="307"/>
+      <c r="D73" s="325"/>
+      <c r="E73" s="368"/>
+      <c r="F73" s="369"/>
+      <c r="G73" s="369"/>
+      <c r="H73" s="369"/>
+      <c r="I73" s="369"/>
+      <c r="J73" s="369"/>
+      <c r="K73" s="369"/>
+      <c r="L73" s="369"/>
+      <c r="M73" s="370"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="97"/>
-      <c r="B74" s="223"/>
-      <c r="C74" s="224"/>
-      <c r="D74" s="225"/>
-      <c r="E74" s="232"/>
-      <c r="F74" s="233"/>
-      <c r="G74" s="233"/>
-      <c r="H74" s="233"/>
-      <c r="I74" s="233"/>
-      <c r="J74" s="233"/>
-      <c r="K74" s="233"/>
-      <c r="L74" s="233"/>
-      <c r="M74" s="234"/>
+      <c r="A74" s="118"/>
+      <c r="B74" s="324"/>
+      <c r="C74" s="307"/>
+      <c r="D74" s="325"/>
+      <c r="E74" s="368"/>
+      <c r="F74" s="369"/>
+      <c r="G74" s="369"/>
+      <c r="H74" s="369"/>
+      <c r="I74" s="369"/>
+      <c r="J74" s="369"/>
+      <c r="K74" s="369"/>
+      <c r="L74" s="369"/>
+      <c r="M74" s="370"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="97"/>
-      <c r="B75" s="223"/>
-      <c r="C75" s="224"/>
-      <c r="D75" s="225"/>
-      <c r="E75" s="232"/>
-      <c r="F75" s="233"/>
-      <c r="G75" s="233"/>
-      <c r="H75" s="233"/>
-      <c r="I75" s="233"/>
-      <c r="J75" s="233"/>
-      <c r="K75" s="233"/>
-      <c r="L75" s="233"/>
-      <c r="M75" s="234"/>
+      <c r="A75" s="118"/>
+      <c r="B75" s="324"/>
+      <c r="C75" s="307"/>
+      <c r="D75" s="325"/>
+      <c r="E75" s="368"/>
+      <c r="F75" s="369"/>
+      <c r="G75" s="369"/>
+      <c r="H75" s="369"/>
+      <c r="I75" s="369"/>
+      <c r="J75" s="369"/>
+      <c r="K75" s="369"/>
+      <c r="L75" s="369"/>
+      <c r="M75" s="370"/>
     </row>
     <row r="76" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="98"/>
-      <c r="B76" s="226"/>
-      <c r="C76" s="227"/>
-      <c r="D76" s="228"/>
-      <c r="E76" s="235"/>
-      <c r="F76" s="236"/>
-      <c r="G76" s="236"/>
-      <c r="H76" s="236"/>
-      <c r="I76" s="236"/>
-      <c r="J76" s="236"/>
-      <c r="K76" s="236"/>
-      <c r="L76" s="236"/>
-      <c r="M76" s="237"/>
+      <c r="A76" s="119"/>
+      <c r="B76" s="326"/>
+      <c r="C76" s="327"/>
+      <c r="D76" s="328"/>
+      <c r="E76" s="371"/>
+      <c r="F76" s="372"/>
+      <c r="G76" s="372"/>
+      <c r="H76" s="372"/>
+      <c r="I76" s="372"/>
+      <c r="J76" s="372"/>
+      <c r="K76" s="372"/>
+      <c r="L76" s="372"/>
+      <c r="M76" s="373"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="96" t="s">
+      <c r="A77" s="117" t="s">
         <v>84</v>
       </c>
-      <c r="B77" s="202" t="s">
+      <c r="B77" s="339" t="s">
         <v>85</v>
       </c>
-      <c r="C77" s="203"/>
-      <c r="D77" s="204"/>
-      <c r="E77" s="108" t="s">
+      <c r="C77" s="340"/>
+      <c r="D77" s="341"/>
+      <c r="E77" s="175" t="s">
         <v>136</v>
       </c>
-      <c r="F77" s="212"/>
-      <c r="G77" s="212"/>
-      <c r="H77" s="212"/>
-      <c r="I77" s="212"/>
-      <c r="J77" s="212"/>
-      <c r="K77" s="212"/>
-      <c r="L77" s="212"/>
-      <c r="M77" s="213"/>
+      <c r="F77" s="348"/>
+      <c r="G77" s="348"/>
+      <c r="H77" s="348"/>
+      <c r="I77" s="348"/>
+      <c r="J77" s="348"/>
+      <c r="K77" s="348"/>
+      <c r="L77" s="348"/>
+      <c r="M77" s="349"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="97"/>
-      <c r="B78" s="205"/>
-      <c r="C78" s="206"/>
-      <c r="D78" s="207"/>
-      <c r="E78" s="214"/>
-      <c r="F78" s="215"/>
-      <c r="G78" s="215"/>
-      <c r="H78" s="215"/>
-      <c r="I78" s="215"/>
-      <c r="J78" s="215"/>
-      <c r="K78" s="215"/>
-      <c r="L78" s="215"/>
-      <c r="M78" s="216"/>
+      <c r="A78" s="118"/>
+      <c r="B78" s="342"/>
+      <c r="C78" s="343"/>
+      <c r="D78" s="344"/>
+      <c r="E78" s="350"/>
+      <c r="F78" s="277"/>
+      <c r="G78" s="277"/>
+      <c r="H78" s="277"/>
+      <c r="I78" s="277"/>
+      <c r="J78" s="277"/>
+      <c r="K78" s="277"/>
+      <c r="L78" s="277"/>
+      <c r="M78" s="351"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="97"/>
-      <c r="B79" s="205"/>
-      <c r="C79" s="206"/>
-      <c r="D79" s="207"/>
-      <c r="E79" s="214"/>
-      <c r="F79" s="215"/>
-      <c r="G79" s="215"/>
-      <c r="H79" s="215"/>
-      <c r="I79" s="215"/>
-      <c r="J79" s="215"/>
-      <c r="K79" s="215"/>
-      <c r="L79" s="215"/>
-      <c r="M79" s="216"/>
+      <c r="A79" s="118"/>
+      <c r="B79" s="342"/>
+      <c r="C79" s="343"/>
+      <c r="D79" s="344"/>
+      <c r="E79" s="350"/>
+      <c r="F79" s="277"/>
+      <c r="G79" s="277"/>
+      <c r="H79" s="277"/>
+      <c r="I79" s="277"/>
+      <c r="J79" s="277"/>
+      <c r="K79" s="277"/>
+      <c r="L79" s="277"/>
+      <c r="M79" s="351"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="97"/>
-      <c r="B80" s="205"/>
-      <c r="C80" s="206"/>
-      <c r="D80" s="207"/>
-      <c r="E80" s="214"/>
-      <c r="F80" s="215"/>
-      <c r="G80" s="215"/>
-      <c r="H80" s="215"/>
-      <c r="I80" s="215"/>
-      <c r="J80" s="215"/>
-      <c r="K80" s="215"/>
-      <c r="L80" s="215"/>
-      <c r="M80" s="216"/>
+      <c r="A80" s="118"/>
+      <c r="B80" s="342"/>
+      <c r="C80" s="343"/>
+      <c r="D80" s="344"/>
+      <c r="E80" s="350"/>
+      <c r="F80" s="277"/>
+      <c r="G80" s="277"/>
+      <c r="H80" s="277"/>
+      <c r="I80" s="277"/>
+      <c r="J80" s="277"/>
+      <c r="K80" s="277"/>
+      <c r="L80" s="277"/>
+      <c r="M80" s="351"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="97"/>
-      <c r="B81" s="205"/>
-      <c r="C81" s="206"/>
-      <c r="D81" s="207"/>
-      <c r="E81" s="214"/>
-      <c r="F81" s="215"/>
-      <c r="G81" s="215"/>
-      <c r="H81" s="215"/>
-      <c r="I81" s="215"/>
-      <c r="J81" s="215"/>
-      <c r="K81" s="215"/>
-      <c r="L81" s="215"/>
-      <c r="M81" s="216"/>
+      <c r="A81" s="118"/>
+      <c r="B81" s="342"/>
+      <c r="C81" s="343"/>
+      <c r="D81" s="344"/>
+      <c r="E81" s="350"/>
+      <c r="F81" s="277"/>
+      <c r="G81" s="277"/>
+      <c r="H81" s="277"/>
+      <c r="I81" s="277"/>
+      <c r="J81" s="277"/>
+      <c r="K81" s="277"/>
+      <c r="L81" s="277"/>
+      <c r="M81" s="351"/>
     </row>
     <row r="82" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="98"/>
-      <c r="B82" s="208"/>
-      <c r="C82" s="209"/>
-      <c r="D82" s="210"/>
-      <c r="E82" s="217"/>
-      <c r="F82" s="218"/>
-      <c r="G82" s="218"/>
-      <c r="H82" s="218"/>
-      <c r="I82" s="218"/>
-      <c r="J82" s="218"/>
-      <c r="K82" s="218"/>
-      <c r="L82" s="218"/>
-      <c r="M82" s="219"/>
+      <c r="A82" s="119"/>
+      <c r="B82" s="345"/>
+      <c r="C82" s="346"/>
+      <c r="D82" s="347"/>
+      <c r="E82" s="352"/>
+      <c r="F82" s="353"/>
+      <c r="G82" s="353"/>
+      <c r="H82" s="353"/>
+      <c r="I82" s="353"/>
+      <c r="J82" s="353"/>
+      <c r="K82" s="353"/>
+      <c r="L82" s="353"/>
+      <c r="M82" s="354"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="96" t="s">
+      <c r="A83" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="B83" s="202" t="s">
+      <c r="B83" s="339" t="s">
         <v>87</v>
       </c>
-      <c r="C83" s="203"/>
-      <c r="D83" s="204"/>
-      <c r="E83" s="108" t="s">
+      <c r="C83" s="340"/>
+      <c r="D83" s="341"/>
+      <c r="E83" s="175" t="s">
         <v>106</v>
       </c>
-      <c r="F83" s="212"/>
-      <c r="G83" s="212"/>
-      <c r="H83" s="212"/>
-      <c r="I83" s="212"/>
-      <c r="J83" s="212"/>
-      <c r="K83" s="212"/>
-      <c r="L83" s="212"/>
-      <c r="M83" s="213"/>
+      <c r="F83" s="348"/>
+      <c r="G83" s="348"/>
+      <c r="H83" s="348"/>
+      <c r="I83" s="348"/>
+      <c r="J83" s="348"/>
+      <c r="K83" s="348"/>
+      <c r="L83" s="348"/>
+      <c r="M83" s="349"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="97"/>
-      <c r="B84" s="205"/>
-      <c r="C84" s="206"/>
-      <c r="D84" s="207"/>
-      <c r="E84" s="214"/>
-      <c r="F84" s="215"/>
-      <c r="G84" s="215"/>
-      <c r="H84" s="215"/>
-      <c r="I84" s="215"/>
-      <c r="J84" s="215"/>
-      <c r="K84" s="215"/>
-      <c r="L84" s="215"/>
-      <c r="M84" s="216"/>
+      <c r="A84" s="118"/>
+      <c r="B84" s="342"/>
+      <c r="C84" s="343"/>
+      <c r="D84" s="344"/>
+      <c r="E84" s="350"/>
+      <c r="F84" s="277"/>
+      <c r="G84" s="277"/>
+      <c r="H84" s="277"/>
+      <c r="I84" s="277"/>
+      <c r="J84" s="277"/>
+      <c r="K84" s="277"/>
+      <c r="L84" s="277"/>
+      <c r="M84" s="351"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="97"/>
-      <c r="B85" s="205"/>
-      <c r="C85" s="206"/>
-      <c r="D85" s="207"/>
-      <c r="E85" s="214"/>
-      <c r="F85" s="215"/>
-      <c r="G85" s="215"/>
-      <c r="H85" s="215"/>
-      <c r="I85" s="215"/>
-      <c r="J85" s="215"/>
-      <c r="K85" s="215"/>
-      <c r="L85" s="215"/>
-      <c r="M85" s="216"/>
+      <c r="A85" s="118"/>
+      <c r="B85" s="342"/>
+      <c r="C85" s="343"/>
+      <c r="D85" s="344"/>
+      <c r="E85" s="350"/>
+      <c r="F85" s="277"/>
+      <c r="G85" s="277"/>
+      <c r="H85" s="277"/>
+      <c r="I85" s="277"/>
+      <c r="J85" s="277"/>
+      <c r="K85" s="277"/>
+      <c r="L85" s="277"/>
+      <c r="M85" s="351"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="97"/>
-      <c r="B86" s="205"/>
-      <c r="C86" s="206"/>
-      <c r="D86" s="207"/>
-      <c r="E86" s="214"/>
-      <c r="F86" s="215"/>
-      <c r="G86" s="215"/>
-      <c r="H86" s="215"/>
-      <c r="I86" s="215"/>
-      <c r="J86" s="215"/>
-      <c r="K86" s="215"/>
-      <c r="L86" s="215"/>
-      <c r="M86" s="216"/>
+      <c r="A86" s="118"/>
+      <c r="B86" s="342"/>
+      <c r="C86" s="343"/>
+      <c r="D86" s="344"/>
+      <c r="E86" s="350"/>
+      <c r="F86" s="277"/>
+      <c r="G86" s="277"/>
+      <c r="H86" s="277"/>
+      <c r="I86" s="277"/>
+      <c r="J86" s="277"/>
+      <c r="K86" s="277"/>
+      <c r="L86" s="277"/>
+      <c r="M86" s="351"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="97"/>
-      <c r="B87" s="205"/>
-      <c r="C87" s="206"/>
-      <c r="D87" s="207"/>
-      <c r="E87" s="214"/>
-      <c r="F87" s="215"/>
-      <c r="G87" s="215"/>
-      <c r="H87" s="215"/>
-      <c r="I87" s="215"/>
-      <c r="J87" s="215"/>
-      <c r="K87" s="215"/>
-      <c r="L87" s="215"/>
-      <c r="M87" s="216"/>
+      <c r="A87" s="118"/>
+      <c r="B87" s="342"/>
+      <c r="C87" s="343"/>
+      <c r="D87" s="344"/>
+      <c r="E87" s="350"/>
+      <c r="F87" s="277"/>
+      <c r="G87" s="277"/>
+      <c r="H87" s="277"/>
+      <c r="I87" s="277"/>
+      <c r="J87" s="277"/>
+      <c r="K87" s="277"/>
+      <c r="L87" s="277"/>
+      <c r="M87" s="351"/>
     </row>
     <row r="88" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="98"/>
-      <c r="B88" s="208"/>
-      <c r="C88" s="209"/>
-      <c r="D88" s="210"/>
-      <c r="E88" s="217"/>
-      <c r="F88" s="218"/>
-      <c r="G88" s="218"/>
-      <c r="H88" s="218"/>
-      <c r="I88" s="218"/>
-      <c r="J88" s="218"/>
-      <c r="K88" s="218"/>
-      <c r="L88" s="218"/>
-      <c r="M88" s="219"/>
+      <c r="A88" s="119"/>
+      <c r="B88" s="345"/>
+      <c r="C88" s="346"/>
+      <c r="D88" s="347"/>
+      <c r="E88" s="352"/>
+      <c r="F88" s="353"/>
+      <c r="G88" s="353"/>
+      <c r="H88" s="353"/>
+      <c r="I88" s="353"/>
+      <c r="J88" s="353"/>
+      <c r="K88" s="353"/>
+      <c r="L88" s="353"/>
+      <c r="M88" s="354"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="96" t="s">
+      <c r="A89" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="202" t="s">
+      <c r="B89" s="339" t="s">
         <v>89</v>
       </c>
-      <c r="C89" s="203"/>
-      <c r="D89" s="204"/>
-      <c r="E89" s="211" t="s">
+      <c r="C89" s="340"/>
+      <c r="D89" s="341"/>
+      <c r="E89" s="364" t="s">
         <v>107</v>
       </c>
-      <c r="F89" s="247"/>
-      <c r="G89" s="247"/>
-      <c r="H89" s="247"/>
-      <c r="I89" s="247"/>
-      <c r="J89" s="247"/>
-      <c r="K89" s="247"/>
-      <c r="L89" s="247"/>
-      <c r="M89" s="248"/>
+      <c r="F89" s="294"/>
+      <c r="G89" s="294"/>
+      <c r="H89" s="294"/>
+      <c r="I89" s="294"/>
+      <c r="J89" s="294"/>
+      <c r="K89" s="294"/>
+      <c r="L89" s="294"/>
+      <c r="M89" s="295"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="97"/>
-      <c r="B90" s="205"/>
-      <c r="C90" s="206"/>
-      <c r="D90" s="207"/>
-      <c r="E90" s="249"/>
-      <c r="F90" s="250"/>
-      <c r="G90" s="250"/>
-      <c r="H90" s="250"/>
-      <c r="I90" s="250"/>
-      <c r="J90" s="250"/>
-      <c r="K90" s="250"/>
-      <c r="L90" s="250"/>
-      <c r="M90" s="251"/>
+      <c r="A90" s="118"/>
+      <c r="B90" s="342"/>
+      <c r="C90" s="343"/>
+      <c r="D90" s="344"/>
+      <c r="E90" s="296"/>
+      <c r="F90" s="253"/>
+      <c r="G90" s="253"/>
+      <c r="H90" s="253"/>
+      <c r="I90" s="253"/>
+      <c r="J90" s="253"/>
+      <c r="K90" s="253"/>
+      <c r="L90" s="253"/>
+      <c r="M90" s="297"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="97"/>
-      <c r="B91" s="205"/>
-      <c r="C91" s="206"/>
-      <c r="D91" s="207"/>
-      <c r="E91" s="249"/>
-      <c r="F91" s="250"/>
-      <c r="G91" s="250"/>
-      <c r="H91" s="250"/>
-      <c r="I91" s="250"/>
-      <c r="J91" s="250"/>
-      <c r="K91" s="250"/>
-      <c r="L91" s="250"/>
-      <c r="M91" s="251"/>
+      <c r="A91" s="118"/>
+      <c r="B91" s="342"/>
+      <c r="C91" s="343"/>
+      <c r="D91" s="344"/>
+      <c r="E91" s="296"/>
+      <c r="F91" s="253"/>
+      <c r="G91" s="253"/>
+      <c r="H91" s="253"/>
+      <c r="I91" s="253"/>
+      <c r="J91" s="253"/>
+      <c r="K91" s="253"/>
+      <c r="L91" s="253"/>
+      <c r="M91" s="297"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="97"/>
-      <c r="B92" s="205"/>
-      <c r="C92" s="206"/>
-      <c r="D92" s="207"/>
-      <c r="E92" s="249"/>
-      <c r="F92" s="250"/>
-      <c r="G92" s="250"/>
-      <c r="H92" s="250"/>
-      <c r="I92" s="250"/>
-      <c r="J92" s="250"/>
-      <c r="K92" s="250"/>
-      <c r="L92" s="250"/>
-      <c r="M92" s="251"/>
+      <c r="A92" s="118"/>
+      <c r="B92" s="342"/>
+      <c r="C92" s="343"/>
+      <c r="D92" s="344"/>
+      <c r="E92" s="296"/>
+      <c r="F92" s="253"/>
+      <c r="G92" s="253"/>
+      <c r="H92" s="253"/>
+      <c r="I92" s="253"/>
+      <c r="J92" s="253"/>
+      <c r="K92" s="253"/>
+      <c r="L92" s="253"/>
+      <c r="M92" s="297"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="97"/>
-      <c r="B93" s="205"/>
-      <c r="C93" s="206"/>
-      <c r="D93" s="207"/>
-      <c r="E93" s="249"/>
-      <c r="F93" s="250"/>
-      <c r="G93" s="250"/>
-      <c r="H93" s="250"/>
-      <c r="I93" s="250"/>
-      <c r="J93" s="250"/>
-      <c r="K93" s="250"/>
-      <c r="L93" s="250"/>
-      <c r="M93" s="251"/>
+      <c r="A93" s="118"/>
+      <c r="B93" s="342"/>
+      <c r="C93" s="343"/>
+      <c r="D93" s="344"/>
+      <c r="E93" s="296"/>
+      <c r="F93" s="253"/>
+      <c r="G93" s="253"/>
+      <c r="H93" s="253"/>
+      <c r="I93" s="253"/>
+      <c r="J93" s="253"/>
+      <c r="K93" s="253"/>
+      <c r="L93" s="253"/>
+      <c r="M93" s="297"/>
     </row>
     <row r="94" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="98"/>
-      <c r="B94" s="208"/>
-      <c r="C94" s="209"/>
-      <c r="D94" s="210"/>
-      <c r="E94" s="252"/>
-      <c r="F94" s="253"/>
-      <c r="G94" s="253"/>
-      <c r="H94" s="253"/>
-      <c r="I94" s="253"/>
-      <c r="J94" s="253"/>
-      <c r="K94" s="253"/>
-      <c r="L94" s="253"/>
-      <c r="M94" s="254"/>
+      <c r="A94" s="119"/>
+      <c r="B94" s="345"/>
+      <c r="C94" s="346"/>
+      <c r="D94" s="347"/>
+      <c r="E94" s="298"/>
+      <c r="F94" s="299"/>
+      <c r="G94" s="299"/>
+      <c r="H94" s="299"/>
+      <c r="I94" s="299"/>
+      <c r="J94" s="299"/>
+      <c r="K94" s="299"/>
+      <c r="L94" s="299"/>
+      <c r="M94" s="300"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="96" t="s">
+      <c r="A95" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="B95" s="202" t="s">
+      <c r="B95" s="339" t="s">
         <v>91</v>
       </c>
-      <c r="C95" s="203"/>
-      <c r="D95" s="204"/>
-      <c r="E95" s="229" t="s">
+      <c r="C95" s="340"/>
+      <c r="D95" s="341"/>
+      <c r="E95" s="365" t="s">
         <v>135</v>
       </c>
-      <c r="F95" s="230"/>
-      <c r="G95" s="230"/>
-      <c r="H95" s="230"/>
-      <c r="I95" s="230"/>
-      <c r="J95" s="230"/>
-      <c r="K95" s="230"/>
-      <c r="L95" s="230"/>
-      <c r="M95" s="231"/>
+      <c r="F95" s="366"/>
+      <c r="G95" s="366"/>
+      <c r="H95" s="366"/>
+      <c r="I95" s="366"/>
+      <c r="J95" s="366"/>
+      <c r="K95" s="366"/>
+      <c r="L95" s="366"/>
+      <c r="M95" s="367"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="97"/>
-      <c r="B96" s="205"/>
-      <c r="C96" s="206"/>
-      <c r="D96" s="207"/>
-      <c r="E96" s="232"/>
-      <c r="F96" s="233"/>
-      <c r="G96" s="233"/>
-      <c r="H96" s="233"/>
-      <c r="I96" s="233"/>
-      <c r="J96" s="233"/>
-      <c r="K96" s="233"/>
-      <c r="L96" s="233"/>
-      <c r="M96" s="234"/>
+      <c r="A96" s="118"/>
+      <c r="B96" s="342"/>
+      <c r="C96" s="343"/>
+      <c r="D96" s="344"/>
+      <c r="E96" s="368"/>
+      <c r="F96" s="369"/>
+      <c r="G96" s="369"/>
+      <c r="H96" s="369"/>
+      <c r="I96" s="369"/>
+      <c r="J96" s="369"/>
+      <c r="K96" s="369"/>
+      <c r="L96" s="369"/>
+      <c r="M96" s="370"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="97"/>
-      <c r="B97" s="205"/>
-      <c r="C97" s="206"/>
-      <c r="D97" s="207"/>
-      <c r="E97" s="232"/>
-      <c r="F97" s="233"/>
-      <c r="G97" s="233"/>
-      <c r="H97" s="233"/>
-      <c r="I97" s="233"/>
-      <c r="J97" s="233"/>
-      <c r="K97" s="233"/>
-      <c r="L97" s="233"/>
-      <c r="M97" s="234"/>
+      <c r="A97" s="118"/>
+      <c r="B97" s="342"/>
+      <c r="C97" s="343"/>
+      <c r="D97" s="344"/>
+      <c r="E97" s="368"/>
+      <c r="F97" s="369"/>
+      <c r="G97" s="369"/>
+      <c r="H97" s="369"/>
+      <c r="I97" s="369"/>
+      <c r="J97" s="369"/>
+      <c r="K97" s="369"/>
+      <c r="L97" s="369"/>
+      <c r="M97" s="370"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="97"/>
-      <c r="B98" s="205"/>
-      <c r="C98" s="206"/>
-      <c r="D98" s="207"/>
-      <c r="E98" s="232"/>
-      <c r="F98" s="233"/>
-      <c r="G98" s="233"/>
-      <c r="H98" s="233"/>
-      <c r="I98" s="233"/>
-      <c r="J98" s="233"/>
-      <c r="K98" s="233"/>
-      <c r="L98" s="233"/>
-      <c r="M98" s="234"/>
+      <c r="A98" s="118"/>
+      <c r="B98" s="342"/>
+      <c r="C98" s="343"/>
+      <c r="D98" s="344"/>
+      <c r="E98" s="368"/>
+      <c r="F98" s="369"/>
+      <c r="G98" s="369"/>
+      <c r="H98" s="369"/>
+      <c r="I98" s="369"/>
+      <c r="J98" s="369"/>
+      <c r="K98" s="369"/>
+      <c r="L98" s="369"/>
+      <c r="M98" s="370"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="97"/>
-      <c r="B99" s="205"/>
-      <c r="C99" s="206"/>
-      <c r="D99" s="207"/>
-      <c r="E99" s="232"/>
-      <c r="F99" s="233"/>
-      <c r="G99" s="233"/>
-      <c r="H99" s="233"/>
-      <c r="I99" s="233"/>
-      <c r="J99" s="233"/>
-      <c r="K99" s="233"/>
-      <c r="L99" s="233"/>
-      <c r="M99" s="234"/>
+      <c r="A99" s="118"/>
+      <c r="B99" s="342"/>
+      <c r="C99" s="343"/>
+      <c r="D99" s="344"/>
+      <c r="E99" s="368"/>
+      <c r="F99" s="369"/>
+      <c r="G99" s="369"/>
+      <c r="H99" s="369"/>
+      <c r="I99" s="369"/>
+      <c r="J99" s="369"/>
+      <c r="K99" s="369"/>
+      <c r="L99" s="369"/>
+      <c r="M99" s="370"/>
     </row>
     <row r="100" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="98"/>
-      <c r="B100" s="208"/>
-      <c r="C100" s="209"/>
-      <c r="D100" s="210"/>
-      <c r="E100" s="235"/>
-      <c r="F100" s="236"/>
-      <c r="G100" s="236"/>
-      <c r="H100" s="236"/>
-      <c r="I100" s="236"/>
-      <c r="J100" s="236"/>
-      <c r="K100" s="236"/>
-      <c r="L100" s="236"/>
-      <c r="M100" s="237"/>
+      <c r="A100" s="119"/>
+      <c r="B100" s="345"/>
+      <c r="C100" s="346"/>
+      <c r="D100" s="347"/>
+      <c r="E100" s="371"/>
+      <c r="F100" s="372"/>
+      <c r="G100" s="372"/>
+      <c r="H100" s="372"/>
+      <c r="I100" s="372"/>
+      <c r="J100" s="372"/>
+      <c r="K100" s="372"/>
+      <c r="L100" s="372"/>
+      <c r="M100" s="373"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="96" t="s">
+      <c r="A101" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="B101" s="202" t="s">
+      <c r="B101" s="339" t="s">
         <v>93</v>
       </c>
-      <c r="C101" s="203"/>
-      <c r="D101" s="204"/>
-      <c r="E101" s="238" t="s">
+      <c r="C101" s="340"/>
+      <c r="D101" s="341"/>
+      <c r="E101" s="355" t="s">
         <v>94</v>
       </c>
-      <c r="F101" s="239"/>
-      <c r="G101" s="239"/>
-      <c r="H101" s="239"/>
-      <c r="I101" s="239"/>
-      <c r="J101" s="239"/>
-      <c r="K101" s="239"/>
-      <c r="L101" s="239"/>
-      <c r="M101" s="240"/>
+      <c r="F101" s="356"/>
+      <c r="G101" s="356"/>
+      <c r="H101" s="356"/>
+      <c r="I101" s="356"/>
+      <c r="J101" s="356"/>
+      <c r="K101" s="356"/>
+      <c r="L101" s="356"/>
+      <c r="M101" s="357"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="97"/>
-      <c r="B102" s="205"/>
-      <c r="C102" s="206"/>
-      <c r="D102" s="207"/>
-      <c r="E102" s="241"/>
-      <c r="F102" s="242"/>
-      <c r="G102" s="242"/>
-      <c r="H102" s="242"/>
-      <c r="I102" s="242"/>
-      <c r="J102" s="242"/>
-      <c r="K102" s="242"/>
-      <c r="L102" s="242"/>
-      <c r="M102" s="243"/>
+      <c r="A102" s="118"/>
+      <c r="B102" s="342"/>
+      <c r="C102" s="343"/>
+      <c r="D102" s="344"/>
+      <c r="E102" s="358"/>
+      <c r="F102" s="359"/>
+      <c r="G102" s="359"/>
+      <c r="H102" s="359"/>
+      <c r="I102" s="359"/>
+      <c r="J102" s="359"/>
+      <c r="K102" s="359"/>
+      <c r="L102" s="359"/>
+      <c r="M102" s="360"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="97"/>
-      <c r="B103" s="205"/>
-      <c r="C103" s="206"/>
-      <c r="D103" s="207"/>
-      <c r="E103" s="241"/>
-      <c r="F103" s="242"/>
-      <c r="G103" s="242"/>
-      <c r="H103" s="242"/>
-      <c r="I103" s="242"/>
-      <c r="J103" s="242"/>
-      <c r="K103" s="242"/>
-      <c r="L103" s="242"/>
-      <c r="M103" s="243"/>
+      <c r="A103" s="118"/>
+      <c r="B103" s="342"/>
+      <c r="C103" s="343"/>
+      <c r="D103" s="344"/>
+      <c r="E103" s="358"/>
+      <c r="F103" s="359"/>
+      <c r="G103" s="359"/>
+      <c r="H103" s="359"/>
+      <c r="I103" s="359"/>
+      <c r="J103" s="359"/>
+      <c r="K103" s="359"/>
+      <c r="L103" s="359"/>
+      <c r="M103" s="360"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="97"/>
-      <c r="B104" s="205"/>
-      <c r="C104" s="206"/>
-      <c r="D104" s="207"/>
-      <c r="E104" s="241"/>
-      <c r="F104" s="242"/>
-      <c r="G104" s="242"/>
-      <c r="H104" s="242"/>
-      <c r="I104" s="242"/>
-      <c r="J104" s="242"/>
-      <c r="K104" s="242"/>
-      <c r="L104" s="242"/>
-      <c r="M104" s="243"/>
+      <c r="A104" s="118"/>
+      <c r="B104" s="342"/>
+      <c r="C104" s="343"/>
+      <c r="D104" s="344"/>
+      <c r="E104" s="358"/>
+      <c r="F104" s="359"/>
+      <c r="G104" s="359"/>
+      <c r="H104" s="359"/>
+      <c r="I104" s="359"/>
+      <c r="J104" s="359"/>
+      <c r="K104" s="359"/>
+      <c r="L104" s="359"/>
+      <c r="M104" s="360"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="97"/>
-      <c r="B105" s="205"/>
-      <c r="C105" s="206"/>
-      <c r="D105" s="207"/>
-      <c r="E105" s="241"/>
-      <c r="F105" s="242"/>
-      <c r="G105" s="242"/>
-      <c r="H105" s="242"/>
-      <c r="I105" s="242"/>
-      <c r="J105" s="242"/>
-      <c r="K105" s="242"/>
-      <c r="L105" s="242"/>
-      <c r="M105" s="243"/>
+      <c r="A105" s="118"/>
+      <c r="B105" s="342"/>
+      <c r="C105" s="343"/>
+      <c r="D105" s="344"/>
+      <c r="E105" s="358"/>
+      <c r="F105" s="359"/>
+      <c r="G105" s="359"/>
+      <c r="H105" s="359"/>
+      <c r="I105" s="359"/>
+      <c r="J105" s="359"/>
+      <c r="K105" s="359"/>
+      <c r="L105" s="359"/>
+      <c r="M105" s="360"/>
     </row>
     <row r="106" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="98"/>
-      <c r="B106" s="208"/>
-      <c r="C106" s="209"/>
-      <c r="D106" s="210"/>
-      <c r="E106" s="244"/>
-      <c r="F106" s="245"/>
-      <c r="G106" s="245"/>
-      <c r="H106" s="245"/>
-      <c r="I106" s="245"/>
-      <c r="J106" s="245"/>
-      <c r="K106" s="245"/>
-      <c r="L106" s="245"/>
-      <c r="M106" s="246"/>
+      <c r="A106" s="119"/>
+      <c r="B106" s="345"/>
+      <c r="C106" s="346"/>
+      <c r="D106" s="347"/>
+      <c r="E106" s="361"/>
+      <c r="F106" s="362"/>
+      <c r="G106" s="362"/>
+      <c r="H106" s="362"/>
+      <c r="I106" s="362"/>
+      <c r="J106" s="362"/>
+      <c r="K106" s="362"/>
+      <c r="L106" s="362"/>
+      <c r="M106" s="363"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:K2"/>
-    <mergeCell ref="E3:K4"/>
-    <mergeCell ref="A5:C9"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L5:M9"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:D12"/>
-    <mergeCell ref="E10:M12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="B13:D18"/>
-    <mergeCell ref="E13:M18"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:D36"/>
-    <mergeCell ref="E31:M36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:M38"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="B19:D24"/>
-    <mergeCell ref="E19:M24"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="B25:D30"/>
-    <mergeCell ref="E25:M30"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:D42"/>
-    <mergeCell ref="E39:M42"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B59:D62"/>
-    <mergeCell ref="E59:M62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:M64"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:D46"/>
-    <mergeCell ref="E43:M46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:D50"/>
-    <mergeCell ref="E47:M50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:D54"/>
-    <mergeCell ref="E51:M54"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="B65:D70"/>
+    <mergeCell ref="E65:M70"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B71:D76"/>
+    <mergeCell ref="E71:M76"/>
     <mergeCell ref="A77:A82"/>
     <mergeCell ref="B77:D82"/>
     <mergeCell ref="E77:M82"/>
@@ -6830,12 +6783,58 @@
     <mergeCell ref="A95:A100"/>
     <mergeCell ref="B95:D100"/>
     <mergeCell ref="E95:M100"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="B65:D70"/>
-    <mergeCell ref="E65:M70"/>
-    <mergeCell ref="A71:A76"/>
-    <mergeCell ref="B71:D76"/>
-    <mergeCell ref="E71:M76"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:M64"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:D46"/>
+    <mergeCell ref="E43:M46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:D50"/>
+    <mergeCell ref="E47:M50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:D54"/>
+    <mergeCell ref="E51:M54"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:D42"/>
+    <mergeCell ref="E39:M42"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B59:D62"/>
+    <mergeCell ref="E59:M62"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B19:D24"/>
+    <mergeCell ref="E19:M24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B25:D30"/>
+    <mergeCell ref="E25:M30"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:D36"/>
+    <mergeCell ref="E31:M36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:M38"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:D12"/>
+    <mergeCell ref="E10:M12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B13:D18"/>
+    <mergeCell ref="E13:M18"/>
+    <mergeCell ref="L5:M9"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:K2"/>
+    <mergeCell ref="E3:K4"/>
+    <mergeCell ref="A5:C9"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6843,7 +6842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
@@ -6862,36 +6861,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="164"/>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="99" t="s">
+      <c r="A1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="140"/>
       <c r="L1" s="18" t="s">
         <v>26</v>
       </c>
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="167"/>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="146"/>
       <c r="L2" s="18" t="s">
         <v>98</v>
       </c>
@@ -6900,10 +6899,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="167"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="169"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
       <c r="E3" s="374" t="s">
         <v>2</v>
       </c>
@@ -6918,14 +6917,14 @@
       </c>
       <c r="M3" s="20">
         <f ca="1">TODAY()</f>
-        <v>43588</v>
+        <v>43948</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="170"/>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="172"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="377"/>
       <c r="F4" s="378"/>
       <c r="G4" s="378"/>
